--- a/BackTest/2019-10-29 BackTest XMR.xlsx
+++ b/BackTest/2019-10-29 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>7685.1483</v>
       </c>
       <c r="G2" t="n">
-        <v>834.5789238076886</v>
+        <v>69772.5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>7627</v>
       </c>
       <c r="G3" t="n">
-        <v>834.5789238076886</v>
+        <v>69745</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>7540</v>
       </c>
       <c r="G4" t="n">
-        <v>834.5789238076886</v>
+        <v>69730</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>6235</v>
       </c>
       <c r="G5" t="n">
-        <v>834.5789238076886</v>
+        <v>69707.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>6438</v>
       </c>
       <c r="G6" t="n">
-        <v>-5603.421076192311</v>
+        <v>69662.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>7511</v>
       </c>
       <c r="G7" t="n">
-        <v>-5603.421076192311</v>
+        <v>69647.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>7511</v>
       </c>
       <c r="G8" t="n">
-        <v>-5603.421076192311</v>
+        <v>69640</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>7627</v>
       </c>
       <c r="G9" t="n">
-        <v>-5603.421076192311</v>
+        <v>69632.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>7482</v>
       </c>
       <c r="G10" t="n">
-        <v>-5603.421076192311</v>
+        <v>69625</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>7540</v>
       </c>
       <c r="G11" t="n">
-        <v>-5603.421076192311</v>
+        <v>69620</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,7 +813,7 @@
         <v>7540</v>
       </c>
       <c r="G12" t="n">
-        <v>-5603.421076192311</v>
+        <v>69615</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>8033</v>
       </c>
       <c r="G13" t="n">
-        <v>-5603.421076192311</v>
+        <v>69610</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>5778.8162</v>
       </c>
       <c r="G14" t="n">
-        <v>-5603.421076192311</v>
+        <v>69605</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>0.5553</v>
       </c>
       <c r="G15" t="n">
-        <v>-5603.976376192311</v>
+        <v>69590</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,7 +957,7 @@
         <v>5040</v>
       </c>
       <c r="G16" t="n">
-        <v>-563.9763761923114</v>
+        <v>69585</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,7 +993,7 @@
         <v>7420</v>
       </c>
       <c r="G17" t="n">
-        <v>-563.9763761923114</v>
+        <v>69580</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,7 +1029,7 @@
         <v>7224</v>
       </c>
       <c r="G18" t="n">
-        <v>-563.9763761923114</v>
+        <v>69575</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1043,7 +1065,7 @@
         <v>7308</v>
       </c>
       <c r="G19" t="n">
-        <v>-563.9763761923114</v>
+        <v>69570</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1078,7 +1101,7 @@
         <v>7252</v>
       </c>
       <c r="G20" t="n">
-        <v>-563.9763761923114</v>
+        <v>69565</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,7 +1137,7 @@
         <v>7339</v>
       </c>
       <c r="G21" t="n">
-        <v>-563.9763761923114</v>
+        <v>69560</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,7 +1173,7 @@
         <v>7252</v>
       </c>
       <c r="G22" t="n">
-        <v>-563.9763761923114</v>
+        <v>69555</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1183,7 +1209,7 @@
         <v>7308.6676</v>
       </c>
       <c r="G23" t="n">
-        <v>-563.9763761923114</v>
+        <v>69550</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1218,7 +1245,7 @@
         <v>7362.8335</v>
       </c>
       <c r="G24" t="n">
-        <v>-563.9763761923114</v>
+        <v>69545</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1253,7 +1281,7 @@
         <v>7336</v>
       </c>
       <c r="G25" t="n">
-        <v>-563.9763761923114</v>
+        <v>69540</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1288,7 +1317,7 @@
         <v>7224</v>
       </c>
       <c r="G26" t="n">
-        <v>-563.9763761923114</v>
+        <v>69540</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1323,7 +1353,7 @@
         <v>7224</v>
       </c>
       <c r="G27" t="n">
-        <v>-563.9763761923114</v>
+        <v>69540</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1358,7 +1389,7 @@
         <v>7364</v>
       </c>
       <c r="G28" t="n">
-        <v>-563.9763761923114</v>
+        <v>69540</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1393,7 +1425,7 @@
         <v>7280.2521</v>
       </c>
       <c r="G29" t="n">
-        <v>-563.9763761923114</v>
+        <v>69540</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1428,7 +1461,7 @@
         <v>7280</v>
       </c>
       <c r="G30" t="n">
-        <v>-563.9763761923114</v>
+        <v>69540</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1463,7 +1497,7 @@
         <v>7340.5656</v>
       </c>
       <c r="G31" t="n">
-        <v>-563.9763761923114</v>
+        <v>69540</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1498,7 +1533,7 @@
         <v>7392</v>
       </c>
       <c r="G32" t="n">
-        <v>-563.9763761923114</v>
+        <v>69540</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1533,7 +1569,7 @@
         <v>7336</v>
       </c>
       <c r="G33" t="n">
-        <v>-563.9763761923114</v>
+        <v>69540</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1568,7 +1605,7 @@
         <v>7392</v>
       </c>
       <c r="G34" t="n">
-        <v>-563.9763761923114</v>
+        <v>69540</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1603,7 +1641,7 @@
         <v>7336</v>
       </c>
       <c r="G35" t="n">
-        <v>-563.9763761923114</v>
+        <v>69550</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1638,7 +1677,7 @@
         <v>4060</v>
       </c>
       <c r="G36" t="n">
-        <v>-563.9763761923114</v>
+        <v>69550</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1673,7 +1713,7 @@
         <v>336</v>
       </c>
       <c r="G37" t="n">
-        <v>-899.9763761923114</v>
+        <v>69547.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1708,7 +1749,7 @@
         <v>4844</v>
       </c>
       <c r="G38" t="n">
-        <v>-5743.976376192311</v>
+        <v>69540</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1743,7 +1785,7 @@
         <v>7336</v>
       </c>
       <c r="G39" t="n">
-        <v>-5743.976376192311</v>
+        <v>69530</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1778,7 +1821,7 @@
         <v>7377.6504</v>
       </c>
       <c r="G40" t="n">
-        <v>-5743.976376192311</v>
+        <v>69520</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1813,7 +1857,7 @@
         <v>7366.9557</v>
       </c>
       <c r="G41" t="n">
-        <v>-5743.976376192311</v>
+        <v>69510</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1848,7 +1893,7 @@
         <v>7336.7944</v>
       </c>
       <c r="G42" t="n">
-        <v>-5743.976376192311</v>
+        <v>69500</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1883,7 +1929,7 @@
         <v>7287.857</v>
       </c>
       <c r="G43" t="n">
-        <v>-5743.976376192311</v>
+        <v>69490</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1918,7 +1965,7 @@
         <v>7307.1563</v>
       </c>
       <c r="G44" t="n">
-        <v>-5743.976376192311</v>
+        <v>69480</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1953,7 +2001,7 @@
         <v>7280.8437</v>
       </c>
       <c r="G45" t="n">
-        <v>-5743.976376192311</v>
+        <v>69470</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1988,7 +2037,7 @@
         <v>7366.7236</v>
       </c>
       <c r="G46" t="n">
-        <v>-5743.976376192311</v>
+        <v>69460</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2023,7 +2073,7 @@
         <v>7416.538</v>
       </c>
       <c r="G47" t="n">
-        <v>-5743.976376192311</v>
+        <v>69450</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2058,7 +2109,7 @@
         <v>7497.6047</v>
       </c>
       <c r="G48" t="n">
-        <v>-5743.976376192311</v>
+        <v>69440</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2093,7 +2145,7 @@
         <v>7543.3854</v>
       </c>
       <c r="G49" t="n">
-        <v>-5743.976376192311</v>
+        <v>69430</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2128,7 +2181,7 @@
         <v>7336</v>
       </c>
       <c r="G50" t="n">
-        <v>-5743.976376192311</v>
+        <v>69420</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2163,7 +2217,7 @@
         <v>7336</v>
       </c>
       <c r="G51" t="n">
-        <v>-5743.976376192311</v>
+        <v>69410</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2198,7 +2253,7 @@
         <v>7420</v>
       </c>
       <c r="G52" t="n">
-        <v>-5743.976376192311</v>
+        <v>69400</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2233,7 +2289,7 @@
         <v>7504</v>
       </c>
       <c r="G53" t="n">
-        <v>-5743.976376192311</v>
+        <v>69390</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2268,7 +2325,7 @@
         <v>7427.0525</v>
       </c>
       <c r="G54" t="n">
-        <v>-5743.976376192311</v>
+        <v>69380</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2303,7 +2361,7 @@
         <v>7448</v>
       </c>
       <c r="G55" t="n">
-        <v>-5743.976376192311</v>
+        <v>69370</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2338,7 +2397,7 @@
         <v>7420</v>
       </c>
       <c r="G56" t="n">
-        <v>-5743.976376192311</v>
+        <v>69360</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2373,7 +2433,7 @@
         <v>2016</v>
       </c>
       <c r="G57" t="n">
-        <v>-5743.976376192311</v>
+        <v>69352.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2408,7 +2469,7 @@
         <v>74.95820000000001</v>
       </c>
       <c r="G58" t="n">
-        <v>-5669.018176192311</v>
+        <v>69352.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2443,7 +2505,7 @@
         <v>4083.7649</v>
       </c>
       <c r="G59" t="n">
-        <v>-1585.253276192311</v>
+        <v>69360</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2478,7 +2541,7 @@
         <v>6217.5</v>
       </c>
       <c r="G60" t="n">
-        <v>-1585.253276192311</v>
+        <v>69370</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2513,7 +2577,7 @@
         <v>3672</v>
       </c>
       <c r="G61" t="n">
-        <v>-1585.253276192311</v>
+        <v>69380</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2548,7 +2613,7 @@
         <v>1.704</v>
       </c>
       <c r="G62" t="n">
-        <v>-1583.549276192311</v>
+        <v>69402.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2583,7 +2649,7 @@
         <v>0.5925</v>
       </c>
       <c r="G63" t="n">
-        <v>-1584.141776192311</v>
+        <v>69400</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2618,7 +2685,7 @@
         <v>8.0876</v>
       </c>
       <c r="G64" t="n">
-        <v>-1576.054176192311</v>
+        <v>69427.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2653,7 +2721,7 @@
         <v>1.8811</v>
       </c>
       <c r="G65" t="n">
-        <v>-1577.935276192311</v>
+        <v>69460</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2688,7 +2757,7 @@
         <v>1.2123</v>
       </c>
       <c r="G66" t="n">
-        <v>-1576.722976192311</v>
+        <v>69515</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2723,7 +2793,7 @@
         <v>1.704</v>
       </c>
       <c r="G67" t="n">
-        <v>-1575.018976192311</v>
+        <v>69577.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2758,7 +2829,7 @@
         <v>0.8124</v>
       </c>
       <c r="G68" t="n">
-        <v>-1575.018976192311</v>
+        <v>69655</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2793,7 +2865,7 @@
         <v>2.6796</v>
       </c>
       <c r="G69" t="n">
-        <v>-1572.339376192311</v>
+        <v>69737.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2828,7 +2901,7 @@
         <v>6.7465</v>
       </c>
       <c r="G70" t="n">
-        <v>-1579.085876192311</v>
+        <v>69810</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2863,7 +2937,7 @@
         <v>9.975</v>
       </c>
       <c r="G71" t="n">
-        <v>-1569.110876192311</v>
+        <v>69892.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2898,7 +2973,7 @@
         <v>0.02</v>
       </c>
       <c r="G72" t="n">
-        <v>-1569.090876192311</v>
+        <v>69985</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2933,7 +3009,7 @@
         <v>1.552</v>
       </c>
       <c r="G73" t="n">
-        <v>-1570.642876192311</v>
+        <v>70065</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2968,7 +3045,7 @@
         <v>5.8549</v>
       </c>
       <c r="G74" t="n">
-        <v>-1564.787976192311</v>
+        <v>70160</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3003,7 +3081,7 @@
         <v>2.9307</v>
       </c>
       <c r="G75" t="n">
-        <v>-1567.718676192311</v>
+        <v>70235</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3038,7 +3117,7 @@
         <v>1.68</v>
       </c>
       <c r="G76" t="n">
-        <v>-1569.398676192311</v>
+        <v>70265</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3073,7 +3153,7 @@
         <v>0.85</v>
       </c>
       <c r="G77" t="n">
-        <v>-1570.248676192311</v>
+        <v>70297.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3108,7 +3189,7 @@
         <v>5.8549</v>
       </c>
       <c r="G78" t="n">
-        <v>-1576.103576192311</v>
+        <v>70312.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,6 +3203,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3143,7 +3225,7 @@
         <v>15</v>
       </c>
       <c r="G79" t="n">
-        <v>-1591.103576192311</v>
+        <v>70315</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3178,7 +3261,7 @@
         <v>7.3571</v>
       </c>
       <c r="G80" t="n">
-        <v>-1598.460676192311</v>
+        <v>70315</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,6 +3275,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3213,7 +3297,7 @@
         <v>0.6239</v>
       </c>
       <c r="G81" t="n">
-        <v>-1599.084576192311</v>
+        <v>70297.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,6 +3311,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3248,7 +3333,7 @@
         <v>0.8517</v>
       </c>
       <c r="G82" t="n">
-        <v>-1599.084576192311</v>
+        <v>70267.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,6 +3347,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3283,7 +3369,7 @@
         <v>0.059120403749</v>
       </c>
       <c r="G83" t="n">
-        <v>-1599.025455788562</v>
+        <v>70270</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3318,7 +3405,7 @@
         <v>0.6859</v>
       </c>
       <c r="G84" t="n">
-        <v>-1599.711355788562</v>
+        <v>70220</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,6 +3419,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3353,7 +3441,7 @@
         <v>7.311</v>
       </c>
       <c r="G85" t="n">
-        <v>-1592.400355788562</v>
+        <v>70187.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,6 +3455,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3388,7 +3477,7 @@
         <v>0.03019410496</v>
       </c>
       <c r="G86" t="n">
-        <v>-1592.370161683602</v>
+        <v>70142.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,6 +3491,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3423,7 +3513,7 @@
         <v>3.6439</v>
       </c>
       <c r="G87" t="n">
-        <v>-1596.014061683602</v>
+        <v>70067.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,6 +3527,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3458,7 +3549,7 @@
         <v>0.031925287356</v>
       </c>
       <c r="G88" t="n">
-        <v>-1595.982136396246</v>
+        <v>70002.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,6 +3563,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3493,7 +3585,7 @@
         <v>0.268074712644</v>
       </c>
       <c r="G89" t="n">
-        <v>-1595.982136396246</v>
+        <v>69932.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,6 +3599,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3528,7 +3621,7 @@
         <v>0.672</v>
       </c>
       <c r="G90" t="n">
-        <v>-1595.310136396246</v>
+        <v>69882.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,6 +3635,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3563,7 +3657,7 @@
         <v>0.15</v>
       </c>
       <c r="G91" t="n">
-        <v>-1595.160136396246</v>
+        <v>69830</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,6 +3671,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3598,7 +3693,7 @@
         <v>0.5608</v>
       </c>
       <c r="G92" t="n">
-        <v>-1595.720936396246</v>
+        <v>69760</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,6 +3707,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3633,7 +3729,7 @@
         <v>1.4667</v>
       </c>
       <c r="G93" t="n">
-        <v>-1595.720936396246</v>
+        <v>69702.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,6 +3743,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3668,7 +3765,7 @@
         <v>1.4999</v>
       </c>
       <c r="G94" t="n">
-        <v>-1594.221036396246</v>
+        <v>69635</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,6 +3779,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3703,7 +3801,7 @@
         <v>4.1874</v>
       </c>
       <c r="G95" t="n">
-        <v>-1598.408436396246</v>
+        <v>69580</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,6 +3815,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3738,7 +3837,7 @@
         <v>0.0128</v>
       </c>
       <c r="G96" t="n">
-        <v>-1598.421236396246</v>
+        <v>69565</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,6 +3851,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3773,7 +3873,7 @@
         <v>5.7708</v>
       </c>
       <c r="G97" t="n">
-        <v>-1598.421236396246</v>
+        <v>69547.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,6 +3887,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3808,7 +3909,7 @@
         <v>0.1434</v>
       </c>
       <c r="G98" t="n">
-        <v>-1598.277836396246</v>
+        <v>69557.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,6 +3923,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3843,7 +3945,7 @@
         <v>0.8339</v>
       </c>
       <c r="G99" t="n">
-        <v>-1599.111736396246</v>
+        <v>69560</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,6 +3959,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3878,7 +3981,7 @@
         <v>1.4547</v>
       </c>
       <c r="G100" t="n">
-        <v>-1597.657036396246</v>
+        <v>69570</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,6 +3995,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3913,7 +4017,7 @@
         <v>37.3768</v>
       </c>
       <c r="G101" t="n">
-        <v>-1597.657036396246</v>
+        <v>69597.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,6 +4031,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3948,7 +4053,7 @@
         <v>0.448</v>
       </c>
       <c r="G102" t="n">
-        <v>-1597.657036396246</v>
+        <v>69625</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,6 +4067,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3983,7 +4089,7 @@
         <v>1.5487</v>
       </c>
       <c r="G103" t="n">
-        <v>-1597.657036396246</v>
+        <v>69645</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,6 +4103,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4018,7 +4125,7 @@
         <v>66.4949</v>
       </c>
       <c r="G104" t="n">
-        <v>-1531.162136396247</v>
+        <v>69695</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,6 +4139,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4053,7 +4161,7 @@
         <v>79.5433</v>
       </c>
       <c r="G105" t="n">
-        <v>-1531.162136396247</v>
+        <v>69725</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,6 +4175,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4088,7 +4197,7 @@
         <v>39.4898</v>
       </c>
       <c r="G106" t="n">
-        <v>-1531.162136396247</v>
+        <v>69745</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,6 +4211,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4123,7 +4233,7 @@
         <v>0.0282</v>
       </c>
       <c r="G107" t="n">
-        <v>-1531.162136396247</v>
+        <v>69787.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,6 +4247,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4158,7 +4269,7 @@
         <v>38.3647</v>
       </c>
       <c r="G108" t="n">
-        <v>-1531.162136396247</v>
+        <v>69802.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,6 +4283,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4193,7 +4305,7 @@
         <v>112.2296</v>
       </c>
       <c r="G109" t="n">
-        <v>-1531.162136396247</v>
+        <v>69820</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,6 +4319,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4228,7 +4341,7 @@
         <v>6.4069</v>
       </c>
       <c r="G110" t="n">
-        <v>-1531.162136396247</v>
+        <v>69827.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,6 +4355,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4263,7 +4377,7 @@
         <v>11.3802</v>
       </c>
       <c r="G111" t="n">
-        <v>-1531.162136396247</v>
+        <v>69817.5</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -4283,6 +4397,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4304,7 +4419,7 @@
         <v>1.3258</v>
       </c>
       <c r="G112" t="n">
-        <v>-1531.162136396247</v>
+        <v>69825</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -4324,6 +4439,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4345,7 +4461,7 @@
         <v>10.5606</v>
       </c>
       <c r="G113" t="n">
-        <v>-1520.601536396247</v>
+        <v>69835</v>
       </c>
       <c r="H113" t="n">
         <v>1</v>
@@ -4365,6 +4481,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4386,7 +4503,7 @@
         <v>0.0161</v>
       </c>
       <c r="G114" t="n">
-        <v>-1520.585436396246</v>
+        <v>69855</v>
       </c>
       <c r="H114" t="n">
         <v>1</v>
@@ -4406,6 +4523,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4427,7 +4545,7 @@
         <v>0.05</v>
       </c>
       <c r="G115" t="n">
-        <v>-1520.635436396246</v>
+        <v>69855</v>
       </c>
       <c r="H115" t="n">
         <v>1</v>
@@ -4447,6 +4565,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4468,7 +4587,7 @@
         <v>0.3079</v>
       </c>
       <c r="G116" t="n">
-        <v>-1520.327536396246</v>
+        <v>69887.5</v>
       </c>
       <c r="H116" t="n">
         <v>1</v>
@@ -4488,6 +4607,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4509,7 +4629,7 @@
         <v>1.1383</v>
       </c>
       <c r="G117" t="n">
-        <v>-1519.189236396246</v>
+        <v>69922.5</v>
       </c>
       <c r="H117" t="n">
         <v>1</v>
@@ -4529,6 +4649,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4550,7 +4671,7 @@
         <v>5.0483</v>
       </c>
       <c r="G118" t="n">
-        <v>-1514.140936396246</v>
+        <v>69960</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
@@ -4570,6 +4691,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4591,7 +4713,7 @@
         <v>1.0622</v>
       </c>
       <c r="G119" t="n">
-        <v>-1513.078736396246</v>
+        <v>70027.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4609,6 +4731,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4630,7 +4753,7 @@
         <v>0.95</v>
       </c>
       <c r="G120" t="n">
-        <v>-1512.128736396246</v>
+        <v>70090</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4648,6 +4771,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4669,13 +4793,13 @@
         <v>2.1363</v>
       </c>
       <c r="G121" t="n">
-        <v>-1514.265036396246</v>
+        <v>70152.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4687,6 +4811,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4708,7 +4833,7 @@
         <v>0.428</v>
       </c>
       <c r="G122" t="n">
-        <v>-1513.837036396246</v>
+        <v>70237.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4726,6 +4851,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4747,7 +4873,7 @@
         <v>2.7083</v>
       </c>
       <c r="G123" t="n">
-        <v>-1513.837036396246</v>
+        <v>70322.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4763,6 +4889,9 @@
         </is>
       </c>
       <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1.036363636363636</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4784,7 +4913,7 @@
         <v>13.485</v>
       </c>
       <c r="G124" t="n">
-        <v>-1500.352036396246</v>
+        <v>70402.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4798,6 +4927,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4819,7 +4949,7 @@
         <v>1.763</v>
       </c>
       <c r="G125" t="n">
-        <v>-1500.352036396246</v>
+        <v>70480</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4833,6 +4963,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4854,7 +4985,7 @@
         <v>5.789</v>
       </c>
       <c r="G126" t="n">
-        <v>-1500.352036396246</v>
+        <v>70557.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4868,6 +4999,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4889,7 +5021,7 @@
         <v>2.5259</v>
       </c>
       <c r="G127" t="n">
-        <v>-1502.877936396246</v>
+        <v>70632.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4903,6 +5035,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4924,7 +5057,7 @@
         <v>4.6191</v>
       </c>
       <c r="G128" t="n">
-        <v>-1507.497036396246</v>
+        <v>70685</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4938,6 +5071,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4959,13 +5093,13 @@
         <v>1.656</v>
       </c>
       <c r="G129" t="n">
-        <v>-1505.841036396246</v>
+        <v>70745</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -4973,6 +5107,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4994,13 +5129,13 @@
         <v>0.5621</v>
       </c>
       <c r="G130" t="n">
-        <v>-1505.841036396246</v>
+        <v>70805</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5008,6 +5143,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5029,13 +5165,13 @@
         <v>4.3548</v>
       </c>
       <c r="G131" t="n">
-        <v>-1501.486236396246</v>
+        <v>70877.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5043,6 +5179,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5064,7 +5201,7 @@
         <v>2.8552</v>
       </c>
       <c r="G132" t="n">
-        <v>-1501.486236396246</v>
+        <v>70940</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5078,6 +5215,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest XMR.xlsx
+++ b/BackTest/2019-10-29 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N132"/>
+  <dimension ref="A1:N161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>69650</v>
+        <v>70500</v>
       </c>
       <c r="C2" t="n">
-        <v>69650</v>
+        <v>70500</v>
       </c>
       <c r="D2" t="n">
-        <v>69650</v>
+        <v>70500</v>
       </c>
       <c r="E2" t="n">
-        <v>69600</v>
+        <v>70500</v>
       </c>
       <c r="F2" t="n">
-        <v>7685.1483</v>
+        <v>1.4999</v>
       </c>
       <c r="G2" t="n">
-        <v>69772.5</v>
+        <v>-12.83078328954301</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>69650</v>
+        <v>70200</v>
       </c>
       <c r="C3" t="n">
-        <v>69650</v>
+        <v>70200</v>
       </c>
       <c r="D3" t="n">
-        <v>69650</v>
+        <v>70200</v>
       </c>
       <c r="E3" t="n">
-        <v>69650</v>
+        <v>70200</v>
       </c>
       <c r="F3" t="n">
-        <v>7627</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>69745</v>
+        <v>-12.85078328954301</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>69650</v>
+        <v>69900</v>
       </c>
       <c r="C4" t="n">
-        <v>69650</v>
+        <v>69900</v>
       </c>
       <c r="D4" t="n">
-        <v>69650</v>
+        <v>69900</v>
       </c>
       <c r="E4" t="n">
-        <v>69650</v>
+        <v>69900</v>
       </c>
       <c r="F4" t="n">
-        <v>7540</v>
+        <v>5.2007</v>
       </c>
       <c r="G4" t="n">
-        <v>69730</v>
+        <v>-18.05148328954301</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,31 +546,35 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>69650</v>
+        <v>70150</v>
       </c>
       <c r="C5" t="n">
-        <v>69650</v>
+        <v>70150</v>
       </c>
       <c r="D5" t="n">
-        <v>69650</v>
+        <v>70150</v>
       </c>
       <c r="E5" t="n">
-        <v>69650</v>
+        <v>70150</v>
       </c>
       <c r="F5" t="n">
-        <v>6235</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>69707.5</v>
+        <v>-18.03148328954301</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>69900</v>
+      </c>
+      <c r="K5" t="n">
+        <v>69900</v>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -582,32 +586,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>69550</v>
+        <v>70150</v>
       </c>
       <c r="C6" t="n">
-        <v>69550</v>
+        <v>70150</v>
       </c>
       <c r="D6" t="n">
-        <v>69550</v>
+        <v>70150</v>
       </c>
       <c r="E6" t="n">
-        <v>69550</v>
+        <v>70150</v>
       </c>
       <c r="F6" t="n">
-        <v>6438</v>
+        <v>2.205</v>
       </c>
       <c r="G6" t="n">
-        <v>69662.5</v>
+        <v>-18.03148328954301</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>70150</v>
+      </c>
+      <c r="K6" t="n">
+        <v>69900</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,22 +630,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>69550</v>
+        <v>70150</v>
       </c>
       <c r="C7" t="n">
-        <v>69550</v>
+        <v>70150</v>
       </c>
       <c r="D7" t="n">
-        <v>69550</v>
+        <v>70150</v>
       </c>
       <c r="E7" t="n">
-        <v>69550</v>
+        <v>70150</v>
       </c>
       <c r="F7" t="n">
-        <v>7511</v>
+        <v>0.8046</v>
       </c>
       <c r="G7" t="n">
-        <v>69647.5</v>
+        <v>-18.03148328954301</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -642,8 +654,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>69900</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,31 +672,35 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>69550</v>
+        <v>70200</v>
       </c>
       <c r="C8" t="n">
-        <v>69550</v>
+        <v>70200</v>
       </c>
       <c r="D8" t="n">
-        <v>69550</v>
+        <v>70200</v>
       </c>
       <c r="E8" t="n">
-        <v>69550</v>
+        <v>70200</v>
       </c>
       <c r="F8" t="n">
-        <v>7511</v>
+        <v>11.7702</v>
       </c>
       <c r="G8" t="n">
-        <v>69640</v>
+        <v>-6.261283289543007</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>70150</v>
+      </c>
+      <c r="K8" t="n">
+        <v>70150</v>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -690,22 +712,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>69550</v>
+        <v>70200</v>
       </c>
       <c r="C9" t="n">
-        <v>69550</v>
+        <v>70200</v>
       </c>
       <c r="D9" t="n">
-        <v>69550</v>
+        <v>70200</v>
       </c>
       <c r="E9" t="n">
-        <v>69550</v>
+        <v>70200</v>
       </c>
       <c r="F9" t="n">
-        <v>7627</v>
+        <v>0.0678</v>
       </c>
       <c r="G9" t="n">
-        <v>69632.5</v>
+        <v>-6.261283289543007</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -714,8 +736,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>70150</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +754,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>69550</v>
+        <v>70150</v>
       </c>
       <c r="C10" t="n">
-        <v>69550</v>
+        <v>70150</v>
       </c>
       <c r="D10" t="n">
-        <v>69550</v>
+        <v>70150</v>
       </c>
       <c r="E10" t="n">
-        <v>69550</v>
+        <v>70150</v>
       </c>
       <c r="F10" t="n">
-        <v>7482</v>
+        <v>0.1021</v>
       </c>
       <c r="G10" t="n">
-        <v>69625</v>
+        <v>-6.363383289543007</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +778,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>70150</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +796,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>69550</v>
+        <v>70150</v>
       </c>
       <c r="C11" t="n">
-        <v>69550</v>
+        <v>70150</v>
       </c>
       <c r="D11" t="n">
-        <v>69550</v>
+        <v>70150</v>
       </c>
       <c r="E11" t="n">
-        <v>69550</v>
+        <v>70150</v>
       </c>
       <c r="F11" t="n">
-        <v>7540</v>
+        <v>0.4617</v>
       </c>
       <c r="G11" t="n">
-        <v>69620</v>
+        <v>-6.363383289543007</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +832,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>69550</v>
+        <v>70200</v>
       </c>
       <c r="C12" t="n">
-        <v>69550</v>
+        <v>70200</v>
       </c>
       <c r="D12" t="n">
-        <v>69550</v>
+        <v>70200</v>
       </c>
       <c r="E12" t="n">
-        <v>69550</v>
+        <v>70200</v>
       </c>
       <c r="F12" t="n">
-        <v>7540</v>
+        <v>0.1923</v>
       </c>
       <c r="G12" t="n">
-        <v>69615</v>
+        <v>-6.171083289543007</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +868,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>69550</v>
+        <v>69950</v>
       </c>
       <c r="C13" t="n">
-        <v>69550</v>
+        <v>69900</v>
       </c>
       <c r="D13" t="n">
-        <v>69550</v>
+        <v>69950</v>
       </c>
       <c r="E13" t="n">
-        <v>69550</v>
+        <v>69850</v>
       </c>
       <c r="F13" t="n">
-        <v>8033</v>
+        <v>4.9</v>
       </c>
       <c r="G13" t="n">
-        <v>69610</v>
+        <v>-11.07108328954301</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +904,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>69550</v>
+        <v>70100</v>
       </c>
       <c r="C14" t="n">
-        <v>69550</v>
+        <v>70100</v>
       </c>
       <c r="D14" t="n">
-        <v>69550</v>
+        <v>70100</v>
       </c>
       <c r="E14" t="n">
-        <v>69550</v>
+        <v>70100</v>
       </c>
       <c r="F14" t="n">
-        <v>5778.8162</v>
+        <v>0.1</v>
       </c>
       <c r="G14" t="n">
-        <v>69605</v>
+        <v>-10.97108328954301</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +940,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>69350</v>
+        <v>70450</v>
       </c>
       <c r="C15" t="n">
-        <v>69350</v>
+        <v>70450</v>
       </c>
       <c r="D15" t="n">
-        <v>69350</v>
+        <v>70450</v>
       </c>
       <c r="E15" t="n">
-        <v>69350</v>
+        <v>70450</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5553</v>
+        <v>0.050007097232</v>
       </c>
       <c r="G15" t="n">
-        <v>69590</v>
+        <v>-10.92107619231101</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +976,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>69550</v>
+        <v>69850</v>
       </c>
       <c r="C16" t="n">
-        <v>69550</v>
+        <v>69700</v>
       </c>
       <c r="D16" t="n">
-        <v>69550</v>
+        <v>69850</v>
       </c>
       <c r="E16" t="n">
-        <v>69550</v>
+        <v>69700</v>
       </c>
       <c r="F16" t="n">
-        <v>5040</v>
+        <v>76</v>
       </c>
       <c r="G16" t="n">
-        <v>69585</v>
+        <v>-86.92107619231101</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +1012,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>69550</v>
+        <v>69700</v>
       </c>
       <c r="C17" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="D17" t="n">
-        <v>69550</v>
+        <v>69700</v>
       </c>
       <c r="E17" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="F17" t="n">
-        <v>7420</v>
+        <v>76</v>
       </c>
       <c r="G17" t="n">
-        <v>69580</v>
+        <v>-162.921076192311</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1048,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>69550</v>
+        <v>69700</v>
       </c>
       <c r="C18" t="n">
-        <v>69550</v>
+        <v>69700</v>
       </c>
       <c r="D18" t="n">
-        <v>69550</v>
+        <v>69700</v>
       </c>
       <c r="E18" t="n">
-        <v>69550</v>
+        <v>69700</v>
       </c>
       <c r="F18" t="n">
-        <v>7224</v>
+        <v>6304.5</v>
       </c>
       <c r="G18" t="n">
-        <v>69575</v>
+        <v>6141.578923807689</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1084,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>69550</v>
+        <v>69700</v>
       </c>
       <c r="C19" t="n">
-        <v>69550</v>
+        <v>69700</v>
       </c>
       <c r="D19" t="n">
-        <v>69550</v>
+        <v>69700</v>
       </c>
       <c r="E19" t="n">
-        <v>69550</v>
+        <v>69700</v>
       </c>
       <c r="F19" t="n">
-        <v>7308</v>
+        <v>5235.5</v>
       </c>
       <c r="G19" t="n">
-        <v>69570</v>
+        <v>6141.578923807689</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1120,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="C20" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="D20" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="E20" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="F20" t="n">
-        <v>7252</v>
+        <v>5307</v>
       </c>
       <c r="G20" t="n">
-        <v>69565</v>
+        <v>834.5789238076886</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1156,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="C21" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="D21" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="E21" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="F21" t="n">
-        <v>7339</v>
+        <v>7511</v>
       </c>
       <c r="G21" t="n">
-        <v>69560</v>
+        <v>834.5789238076886</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1192,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="C22" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="D22" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="E22" t="n">
-        <v>69550</v>
+        <v>69600</v>
       </c>
       <c r="F22" t="n">
-        <v>7252</v>
+        <v>7439.2114</v>
       </c>
       <c r="G22" t="n">
-        <v>69555</v>
+        <v>834.5789238076886</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1228,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="C23" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="D23" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="E23" t="n">
-        <v>69550</v>
+        <v>69600</v>
       </c>
       <c r="F23" t="n">
-        <v>7308.6676</v>
+        <v>7629.0935</v>
       </c>
       <c r="G23" t="n">
-        <v>69550</v>
+        <v>834.5789238076886</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1264,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="C24" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="D24" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="E24" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="F24" t="n">
-        <v>7362.8335</v>
+        <v>7540</v>
       </c>
       <c r="G24" t="n">
-        <v>69545</v>
+        <v>834.5789238076886</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1300,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="C25" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="D25" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="E25" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="F25" t="n">
-        <v>7336</v>
+        <v>7511</v>
       </c>
       <c r="G25" t="n">
-        <v>69540</v>
+        <v>834.5789238076886</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1336,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="C26" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="D26" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="E26" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="F26" t="n">
-        <v>7224</v>
+        <v>7453</v>
       </c>
       <c r="G26" t="n">
-        <v>69540</v>
+        <v>834.5789238076886</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1372,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="C27" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="D27" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="E27" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="F27" t="n">
-        <v>7224</v>
+        <v>7685.5434</v>
       </c>
       <c r="G27" t="n">
-        <v>69540</v>
+        <v>834.5789238076886</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1408,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="C28" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="D28" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="E28" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="F28" t="n">
-        <v>7364</v>
+        <v>7685</v>
       </c>
       <c r="G28" t="n">
-        <v>69540</v>
+        <v>834.5789238076886</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1444,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="C29" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="D29" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="E29" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="F29" t="n">
-        <v>7280.2521</v>
+        <v>7482</v>
       </c>
       <c r="G29" t="n">
-        <v>69540</v>
+        <v>834.5789238076886</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1480,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="C30" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="D30" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="E30" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="F30" t="n">
-        <v>7280</v>
+        <v>7540</v>
       </c>
       <c r="G30" t="n">
-        <v>69540</v>
+        <v>834.5789238076886</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1516,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="C31" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="D31" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="E31" t="n">
-        <v>69500</v>
+        <v>69600</v>
       </c>
       <c r="F31" t="n">
-        <v>7340.5656</v>
+        <v>7685.1483</v>
       </c>
       <c r="G31" t="n">
-        <v>69540</v>
+        <v>834.5789238076886</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="C32" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="D32" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="E32" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="F32" t="n">
-        <v>7392</v>
+        <v>7627</v>
       </c>
       <c r="G32" t="n">
-        <v>69540</v>
+        <v>834.5789238076886</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1588,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="C33" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="D33" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="E33" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="F33" t="n">
-        <v>7336</v>
+        <v>7540</v>
       </c>
       <c r="G33" t="n">
-        <v>69540</v>
+        <v>834.5789238076886</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1624,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="C34" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="D34" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="E34" t="n">
-        <v>69550</v>
+        <v>69650</v>
       </c>
       <c r="F34" t="n">
-        <v>7392</v>
+        <v>6235</v>
       </c>
       <c r="G34" t="n">
-        <v>69540</v>
+        <v>834.5789238076886</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1638,10 +1672,10 @@
         <v>69550</v>
       </c>
       <c r="F35" t="n">
-        <v>7336</v>
+        <v>6438</v>
       </c>
       <c r="G35" t="n">
-        <v>69550</v>
+        <v>-5603.421076192311</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1674,19 +1708,23 @@
         <v>69550</v>
       </c>
       <c r="F36" t="n">
-        <v>4060</v>
+        <v>7511</v>
       </c>
       <c r="G36" t="n">
-        <v>69550</v>
+        <v>-5603.421076192311</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K36" t="n">
+        <v>69550</v>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
@@ -1698,32 +1736,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>69500</v>
+        <v>69550</v>
       </c>
       <c r="C37" t="n">
-        <v>69500</v>
+        <v>69550</v>
       </c>
       <c r="D37" t="n">
-        <v>69500</v>
+        <v>69550</v>
       </c>
       <c r="E37" t="n">
-        <v>69450</v>
+        <v>69550</v>
       </c>
       <c r="F37" t="n">
-        <v>336</v>
+        <v>7511</v>
       </c>
       <c r="G37" t="n">
-        <v>69547.5</v>
+        <v>-5603.421076192311</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K37" t="n">
+        <v>69550</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1780,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>69400</v>
+        <v>69550</v>
       </c>
       <c r="C38" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="D38" t="n">
-        <v>69400</v>
+        <v>69550</v>
       </c>
       <c r="E38" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="F38" t="n">
-        <v>4844</v>
+        <v>7627</v>
       </c>
       <c r="G38" t="n">
-        <v>69540</v>
+        <v>-5603.421076192311</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1804,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>69550</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1822,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="C39" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="D39" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="E39" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="F39" t="n">
-        <v>7336</v>
+        <v>7482</v>
       </c>
       <c r="G39" t="n">
-        <v>69530</v>
+        <v>-5603.421076192311</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1858,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="C40" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="D40" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="E40" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="F40" t="n">
-        <v>7377.6504</v>
+        <v>7540</v>
       </c>
       <c r="G40" t="n">
-        <v>69520</v>
+        <v>-5603.421076192311</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1894,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="C41" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="D41" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="E41" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="F41" t="n">
-        <v>7366.9557</v>
+        <v>7540</v>
       </c>
       <c r="G41" t="n">
-        <v>69510</v>
+        <v>-5603.421076192311</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1930,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="C42" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="D42" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="E42" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="F42" t="n">
-        <v>7336.7944</v>
+        <v>8033</v>
       </c>
       <c r="G42" t="n">
-        <v>69500</v>
+        <v>-5603.421076192311</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1966,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="C43" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="D43" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="E43" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="F43" t="n">
-        <v>7287.857</v>
+        <v>5778.8162</v>
       </c>
       <c r="G43" t="n">
-        <v>69490</v>
+        <v>-5603.421076192311</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1956,16 +2008,16 @@
         <v>69350</v>
       </c>
       <c r="D44" t="n">
-        <v>69400</v>
+        <v>69350</v>
       </c>
       <c r="E44" t="n">
         <v>69350</v>
       </c>
       <c r="F44" t="n">
-        <v>7307.1563</v>
+        <v>0.5553</v>
       </c>
       <c r="G44" t="n">
-        <v>69480</v>
+        <v>-5603.976376192311</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +2038,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="C45" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="D45" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="E45" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="F45" t="n">
-        <v>7280.8437</v>
+        <v>5040</v>
       </c>
       <c r="G45" t="n">
-        <v>69470</v>
+        <v>-563.9763761923114</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2074,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="C46" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="D46" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="E46" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="F46" t="n">
-        <v>7366.7236</v>
+        <v>7420</v>
       </c>
       <c r="G46" t="n">
-        <v>69460</v>
+        <v>-563.9763761923114</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2110,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="C47" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="D47" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="E47" t="n">
-        <v>69300</v>
+        <v>69550</v>
       </c>
       <c r="F47" t="n">
-        <v>7416.538</v>
+        <v>7224</v>
       </c>
       <c r="G47" t="n">
-        <v>69450</v>
+        <v>-563.9763761923114</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2146,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="C48" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="D48" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="E48" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="F48" t="n">
-        <v>7497.6047</v>
+        <v>7308</v>
       </c>
       <c r="G48" t="n">
-        <v>69440</v>
+        <v>-563.9763761923114</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2182,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="C49" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="D49" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="E49" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="F49" t="n">
-        <v>7543.3854</v>
+        <v>7252</v>
       </c>
       <c r="G49" t="n">
-        <v>69430</v>
+        <v>-563.9763761923114</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2218,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="C50" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="D50" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="E50" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="F50" t="n">
-        <v>7336</v>
+        <v>7339</v>
       </c>
       <c r="G50" t="n">
-        <v>69420</v>
+        <v>-563.9763761923114</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2254,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="C51" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="D51" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="E51" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="F51" t="n">
-        <v>7336</v>
+        <v>7252</v>
       </c>
       <c r="G51" t="n">
-        <v>69410</v>
+        <v>-563.9763761923114</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2290,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="C52" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="D52" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="E52" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="F52" t="n">
-        <v>7420</v>
+        <v>7308.6676</v>
       </c>
       <c r="G52" t="n">
-        <v>69400</v>
+        <v>-563.9763761923114</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2326,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="C53" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="D53" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="E53" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="F53" t="n">
-        <v>7504</v>
+        <v>7362.8335</v>
       </c>
       <c r="G53" t="n">
-        <v>69390</v>
+        <v>-563.9763761923114</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2362,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="C54" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="D54" t="n">
-        <v>69650</v>
+        <v>69550</v>
       </c>
       <c r="E54" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="F54" t="n">
-        <v>7427.0525</v>
+        <v>7336</v>
       </c>
       <c r="G54" t="n">
-        <v>69380</v>
+        <v>-563.9763761923114</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2398,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="C55" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="D55" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="E55" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="F55" t="n">
-        <v>7448</v>
+        <v>7224</v>
       </c>
       <c r="G55" t="n">
-        <v>69370</v>
+        <v>-563.9763761923114</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2434,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="C56" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="D56" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="E56" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="F56" t="n">
-        <v>7420</v>
+        <v>7224</v>
       </c>
       <c r="G56" t="n">
-        <v>69360</v>
+        <v>-563.9763761923114</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2470,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="C57" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="D57" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="E57" t="n">
-        <v>69350</v>
+        <v>69550</v>
       </c>
       <c r="F57" t="n">
-        <v>2016</v>
+        <v>7364</v>
       </c>
       <c r="G57" t="n">
-        <v>69352.5</v>
+        <v>-563.9763761923114</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2506,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>69400</v>
+        <v>69550</v>
       </c>
       <c r="C58" t="n">
-        <v>69500</v>
+        <v>69550</v>
       </c>
       <c r="D58" t="n">
-        <v>69500</v>
+        <v>69550</v>
       </c>
       <c r="E58" t="n">
-        <v>69400</v>
+        <v>69550</v>
       </c>
       <c r="F58" t="n">
-        <v>74.95820000000001</v>
+        <v>7280.2521</v>
       </c>
       <c r="G58" t="n">
-        <v>69352.5</v>
+        <v>-563.9763761923114</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,7 +2542,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>69500</v>
+        <v>69550</v>
       </c>
       <c r="C59" t="n">
         <v>69550</v>
@@ -2499,13 +2551,13 @@
         <v>69550</v>
       </c>
       <c r="E59" t="n">
-        <v>69500</v>
+        <v>69550</v>
       </c>
       <c r="F59" t="n">
-        <v>4083.7649</v>
+        <v>7280</v>
       </c>
       <c r="G59" t="n">
-        <v>69360</v>
+        <v>-563.9763761923114</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2535,13 +2587,13 @@
         <v>69550</v>
       </c>
       <c r="E60" t="n">
-        <v>69550</v>
+        <v>69500</v>
       </c>
       <c r="F60" t="n">
-        <v>6217.5</v>
+        <v>7340.5656</v>
       </c>
       <c r="G60" t="n">
-        <v>69370</v>
+        <v>-563.9763761923114</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2574,10 +2626,10 @@
         <v>69550</v>
       </c>
       <c r="F61" t="n">
-        <v>3672</v>
+        <v>7392</v>
       </c>
       <c r="G61" t="n">
-        <v>69380</v>
+        <v>-563.9763761923114</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2650,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>69800</v>
+        <v>69550</v>
       </c>
       <c r="C62" t="n">
-        <v>69800</v>
+        <v>69550</v>
       </c>
       <c r="D62" t="n">
-        <v>69800</v>
+        <v>69550</v>
       </c>
       <c r="E62" t="n">
-        <v>69800</v>
+        <v>69550</v>
       </c>
       <c r="F62" t="n">
-        <v>1.704</v>
+        <v>7336</v>
       </c>
       <c r="G62" t="n">
-        <v>69402.5</v>
+        <v>-563.9763761923114</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2686,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>69300</v>
+        <v>69550</v>
       </c>
       <c r="C63" t="n">
-        <v>69300</v>
+        <v>69550</v>
       </c>
       <c r="D63" t="n">
-        <v>69300</v>
+        <v>69550</v>
       </c>
       <c r="E63" t="n">
-        <v>69300</v>
+        <v>69550</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5925</v>
+        <v>7392</v>
       </c>
       <c r="G63" t="n">
-        <v>69400</v>
+        <v>-563.9763761923114</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2722,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>69900</v>
+        <v>69550</v>
       </c>
       <c r="C64" t="n">
-        <v>70100</v>
+        <v>69550</v>
       </c>
       <c r="D64" t="n">
-        <v>70100</v>
+        <v>69550</v>
       </c>
       <c r="E64" t="n">
-        <v>69900</v>
+        <v>69550</v>
       </c>
       <c r="F64" t="n">
-        <v>8.0876</v>
+        <v>7336</v>
       </c>
       <c r="G64" t="n">
-        <v>69427.5</v>
+        <v>-563.9763761923114</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2758,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>70000</v>
+        <v>69550</v>
       </c>
       <c r="C65" t="n">
-        <v>70000</v>
+        <v>69550</v>
       </c>
       <c r="D65" t="n">
-        <v>70000</v>
+        <v>69550</v>
       </c>
       <c r="E65" t="n">
-        <v>70000</v>
+        <v>69550</v>
       </c>
       <c r="F65" t="n">
-        <v>1.8811</v>
+        <v>4060</v>
       </c>
       <c r="G65" t="n">
-        <v>69460</v>
+        <v>-563.9763761923114</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2794,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>70450</v>
+        <v>69500</v>
       </c>
       <c r="C66" t="n">
-        <v>70450</v>
+        <v>69500</v>
       </c>
       <c r="D66" t="n">
-        <v>70450</v>
+        <v>69500</v>
       </c>
       <c r="E66" t="n">
-        <v>70450</v>
+        <v>69450</v>
       </c>
       <c r="F66" t="n">
-        <v>1.2123</v>
+        <v>336</v>
       </c>
       <c r="G66" t="n">
-        <v>69515</v>
+        <v>-899.9763761923114</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2830,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>70600</v>
+        <v>69400</v>
       </c>
       <c r="C67" t="n">
-        <v>70900</v>
+        <v>69350</v>
       </c>
       <c r="D67" t="n">
-        <v>70900</v>
+        <v>69400</v>
       </c>
       <c r="E67" t="n">
-        <v>70600</v>
+        <v>69350</v>
       </c>
       <c r="F67" t="n">
-        <v>1.704</v>
+        <v>4844</v>
       </c>
       <c r="G67" t="n">
-        <v>69577.5</v>
+        <v>-5743.976376192311</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2866,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>70900</v>
+        <v>69350</v>
       </c>
       <c r="C68" t="n">
-        <v>70900</v>
+        <v>69350</v>
       </c>
       <c r="D68" t="n">
-        <v>70900</v>
+        <v>69350</v>
       </c>
       <c r="E68" t="n">
-        <v>70900</v>
+        <v>69350</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8124</v>
+        <v>7336</v>
       </c>
       <c r="G68" t="n">
-        <v>69655</v>
+        <v>-5743.976376192311</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2902,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>71000</v>
+        <v>69350</v>
       </c>
       <c r="C69" t="n">
-        <v>71000</v>
+        <v>69350</v>
       </c>
       <c r="D69" t="n">
-        <v>71000</v>
+        <v>69350</v>
       </c>
       <c r="E69" t="n">
-        <v>71000</v>
+        <v>69350</v>
       </c>
       <c r="F69" t="n">
-        <v>2.6796</v>
+        <v>7377.6504</v>
       </c>
       <c r="G69" t="n">
-        <v>69737.5</v>
+        <v>-5743.976376192311</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2938,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>70800</v>
+        <v>69350</v>
       </c>
       <c r="C70" t="n">
-        <v>70800</v>
+        <v>69350</v>
       </c>
       <c r="D70" t="n">
-        <v>70800</v>
+        <v>69350</v>
       </c>
       <c r="E70" t="n">
-        <v>70800</v>
+        <v>69350</v>
       </c>
       <c r="F70" t="n">
-        <v>6.7465</v>
+        <v>7366.9557</v>
       </c>
       <c r="G70" t="n">
-        <v>69810</v>
+        <v>-5743.976376192311</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2974,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>71000</v>
+        <v>69350</v>
       </c>
       <c r="C71" t="n">
-        <v>71000</v>
+        <v>69350</v>
       </c>
       <c r="D71" t="n">
-        <v>71000</v>
+        <v>69350</v>
       </c>
       <c r="E71" t="n">
-        <v>71000</v>
+        <v>69350</v>
       </c>
       <c r="F71" t="n">
-        <v>9.975</v>
+        <v>7336.7944</v>
       </c>
       <c r="G71" t="n">
-        <v>69892.5</v>
+        <v>-5743.976376192311</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +3010,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>71200</v>
+        <v>69350</v>
       </c>
       <c r="C72" t="n">
-        <v>71200</v>
+        <v>69350</v>
       </c>
       <c r="D72" t="n">
-        <v>71200</v>
+        <v>69350</v>
       </c>
       <c r="E72" t="n">
-        <v>71200</v>
+        <v>69350</v>
       </c>
       <c r="F72" t="n">
-        <v>0.02</v>
+        <v>7287.857</v>
       </c>
       <c r="G72" t="n">
-        <v>69985</v>
+        <v>-5743.976376192311</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +3046,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>70950</v>
+        <v>69350</v>
       </c>
       <c r="C73" t="n">
-        <v>70950</v>
+        <v>69350</v>
       </c>
       <c r="D73" t="n">
-        <v>70950</v>
+        <v>69400</v>
       </c>
       <c r="E73" t="n">
-        <v>70950</v>
+        <v>69350</v>
       </c>
       <c r="F73" t="n">
-        <v>1.552</v>
+        <v>7307.1563</v>
       </c>
       <c r="G73" t="n">
-        <v>70065</v>
+        <v>-5743.976376192311</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3082,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>71250</v>
+        <v>69350</v>
       </c>
       <c r="C74" t="n">
-        <v>71250</v>
+        <v>69350</v>
       </c>
       <c r="D74" t="n">
-        <v>71250</v>
+        <v>69350</v>
       </c>
       <c r="E74" t="n">
-        <v>71250</v>
+        <v>69350</v>
       </c>
       <c r="F74" t="n">
-        <v>5.8549</v>
+        <v>7280.8437</v>
       </c>
       <c r="G74" t="n">
-        <v>70160</v>
+        <v>-5743.976376192311</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3118,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>70850</v>
+        <v>69350</v>
       </c>
       <c r="C75" t="n">
-        <v>70450</v>
+        <v>69350</v>
       </c>
       <c r="D75" t="n">
-        <v>70850</v>
+        <v>69350</v>
       </c>
       <c r="E75" t="n">
-        <v>70450</v>
+        <v>69350</v>
       </c>
       <c r="F75" t="n">
-        <v>2.9307</v>
+        <v>7366.7236</v>
       </c>
       <c r="G75" t="n">
-        <v>70235</v>
+        <v>-5743.976376192311</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3154,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>69950</v>
+        <v>69350</v>
       </c>
       <c r="C76" t="n">
-        <v>70150</v>
+        <v>69350</v>
       </c>
       <c r="D76" t="n">
-        <v>70150</v>
+        <v>69350</v>
       </c>
       <c r="E76" t="n">
-        <v>69950</v>
+        <v>69300</v>
       </c>
       <c r="F76" t="n">
-        <v>1.68</v>
+        <v>7416.538</v>
       </c>
       <c r="G76" t="n">
-        <v>70265</v>
+        <v>-5743.976376192311</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3190,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>70000</v>
+        <v>69350</v>
       </c>
       <c r="C77" t="n">
-        <v>70000</v>
+        <v>69350</v>
       </c>
       <c r="D77" t="n">
-        <v>70000</v>
+        <v>69350</v>
       </c>
       <c r="E77" t="n">
-        <v>70000</v>
+        <v>69350</v>
       </c>
       <c r="F77" t="n">
-        <v>0.85</v>
+        <v>7497.6047</v>
       </c>
       <c r="G77" t="n">
-        <v>70297.5</v>
+        <v>-5743.976376192311</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3226,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>69700</v>
+        <v>69350</v>
       </c>
       <c r="C78" t="n">
-        <v>69700</v>
+        <v>69350</v>
       </c>
       <c r="D78" t="n">
-        <v>69700</v>
+        <v>69350</v>
       </c>
       <c r="E78" t="n">
-        <v>69700</v>
+        <v>69350</v>
       </c>
       <c r="F78" t="n">
-        <v>5.8549</v>
+        <v>7543.3854</v>
       </c>
       <c r="G78" t="n">
-        <v>70312.5</v>
+        <v>-5743.976376192311</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3262,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>69550</v>
+        <v>69350</v>
       </c>
       <c r="C79" t="n">
-        <v>69450</v>
+        <v>69350</v>
       </c>
       <c r="D79" t="n">
-        <v>69550</v>
+        <v>69350</v>
       </c>
       <c r="E79" t="n">
-        <v>69450</v>
+        <v>69350</v>
       </c>
       <c r="F79" t="n">
-        <v>15</v>
+        <v>7336</v>
       </c>
       <c r="G79" t="n">
-        <v>70315</v>
+        <v>-5743.976376192311</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3298,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>69550</v>
+        <v>69350</v>
       </c>
       <c r="C80" t="n">
-        <v>69400</v>
+        <v>69350</v>
       </c>
       <c r="D80" t="n">
-        <v>69550</v>
+        <v>69350</v>
       </c>
       <c r="E80" t="n">
-        <v>69400</v>
+        <v>69350</v>
       </c>
       <c r="F80" t="n">
-        <v>7.3571</v>
+        <v>7336</v>
       </c>
       <c r="G80" t="n">
-        <v>70315</v>
+        <v>-5743.976376192311</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3334,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>69200</v>
+        <v>69350</v>
       </c>
       <c r="C81" t="n">
-        <v>69200</v>
+        <v>69350</v>
       </c>
       <c r="D81" t="n">
-        <v>69200</v>
+        <v>69350</v>
       </c>
       <c r="E81" t="n">
-        <v>69200</v>
+        <v>69350</v>
       </c>
       <c r="F81" t="n">
-        <v>0.6239</v>
+        <v>7420</v>
       </c>
       <c r="G81" t="n">
-        <v>70297.5</v>
+        <v>-5743.976376192311</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3370,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>69200</v>
+        <v>69350</v>
       </c>
       <c r="C82" t="n">
-        <v>69200</v>
+        <v>69350</v>
       </c>
       <c r="D82" t="n">
-        <v>69200</v>
+        <v>69350</v>
       </c>
       <c r="E82" t="n">
-        <v>69200</v>
+        <v>69350</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8517</v>
+        <v>7504</v>
       </c>
       <c r="G82" t="n">
-        <v>70267.5</v>
+        <v>-5743.976376192311</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3360,16 +3412,16 @@
         <v>69350</v>
       </c>
       <c r="D83" t="n">
-        <v>69350</v>
+        <v>69650</v>
       </c>
       <c r="E83" t="n">
         <v>69350</v>
       </c>
       <c r="F83" t="n">
-        <v>0.059120403749</v>
+        <v>7427.0525</v>
       </c>
       <c r="G83" t="n">
-        <v>70270</v>
+        <v>-5743.976376192311</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3442,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>68900</v>
+        <v>69350</v>
       </c>
       <c r="C84" t="n">
-        <v>68750</v>
+        <v>69350</v>
       </c>
       <c r="D84" t="n">
-        <v>68900</v>
+        <v>69350</v>
       </c>
       <c r="E84" t="n">
-        <v>68750</v>
+        <v>69350</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6859</v>
+        <v>7448</v>
       </c>
       <c r="G84" t="n">
-        <v>70220</v>
+        <v>-5743.976376192311</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3438,10 +3490,10 @@
         <v>69350</v>
       </c>
       <c r="F85" t="n">
-        <v>7.311</v>
+        <v>7420</v>
       </c>
       <c r="G85" t="n">
-        <v>70187.5</v>
+        <v>-5743.976376192311</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3514,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>69550</v>
+        <v>69350</v>
       </c>
       <c r="C86" t="n">
-        <v>69550</v>
+        <v>69350</v>
       </c>
       <c r="D86" t="n">
-        <v>69550</v>
+        <v>69350</v>
       </c>
       <c r="E86" t="n">
-        <v>69550</v>
+        <v>69350</v>
       </c>
       <c r="F86" t="n">
-        <v>0.03019410496</v>
+        <v>2016</v>
       </c>
       <c r="G86" t="n">
-        <v>70142.5</v>
+        <v>-5743.976376192311</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3550,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>69100</v>
+        <v>69400</v>
       </c>
       <c r="C87" t="n">
-        <v>69100</v>
+        <v>69500</v>
       </c>
       <c r="D87" t="n">
-        <v>69100</v>
+        <v>69500</v>
       </c>
       <c r="E87" t="n">
-        <v>69100</v>
+        <v>69400</v>
       </c>
       <c r="F87" t="n">
-        <v>3.6439</v>
+        <v>74.95820000000001</v>
       </c>
       <c r="G87" t="n">
-        <v>70067.5</v>
+        <v>-5669.018176192311</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3586,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>69600</v>
+        <v>69500</v>
       </c>
       <c r="C88" t="n">
-        <v>69600</v>
+        <v>69550</v>
       </c>
       <c r="D88" t="n">
-        <v>69600</v>
+        <v>69550</v>
       </c>
       <c r="E88" t="n">
-        <v>69600</v>
+        <v>69500</v>
       </c>
       <c r="F88" t="n">
-        <v>0.031925287356</v>
+        <v>4083.7649</v>
       </c>
       <c r="G88" t="n">
-        <v>70002.5</v>
+        <v>-1585.253276192311</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3622,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>69600</v>
+        <v>69550</v>
       </c>
       <c r="C89" t="n">
-        <v>69600</v>
+        <v>69550</v>
       </c>
       <c r="D89" t="n">
-        <v>69600</v>
+        <v>69550</v>
       </c>
       <c r="E89" t="n">
-        <v>69600</v>
+        <v>69550</v>
       </c>
       <c r="F89" t="n">
-        <v>0.268074712644</v>
+        <v>6217.5</v>
       </c>
       <c r="G89" t="n">
-        <v>69932.5</v>
+        <v>-1585.253276192311</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3658,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>69800</v>
+        <v>69550</v>
       </c>
       <c r="C90" t="n">
-        <v>69800</v>
+        <v>69550</v>
       </c>
       <c r="D90" t="n">
-        <v>69800</v>
+        <v>69550</v>
       </c>
       <c r="E90" t="n">
-        <v>69800</v>
+        <v>69550</v>
       </c>
       <c r="F90" t="n">
-        <v>0.672</v>
+        <v>3672</v>
       </c>
       <c r="G90" t="n">
-        <v>69882.5</v>
+        <v>-1585.253276192311</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3694,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>69950</v>
+        <v>69800</v>
       </c>
       <c r="C91" t="n">
-        <v>69950</v>
+        <v>69800</v>
       </c>
       <c r="D91" t="n">
-        <v>69950</v>
+        <v>69800</v>
       </c>
       <c r="E91" t="n">
-        <v>69950</v>
+        <v>69800</v>
       </c>
       <c r="F91" t="n">
-        <v>0.15</v>
+        <v>1.704</v>
       </c>
       <c r="G91" t="n">
-        <v>69830</v>
+        <v>-1583.549276192311</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3730,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>69800</v>
+        <v>69300</v>
       </c>
       <c r="C92" t="n">
-        <v>69800</v>
+        <v>69300</v>
       </c>
       <c r="D92" t="n">
-        <v>69800</v>
+        <v>69300</v>
       </c>
       <c r="E92" t="n">
-        <v>69800</v>
+        <v>69300</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5608</v>
+        <v>0.5925</v>
       </c>
       <c r="G92" t="n">
-        <v>69760</v>
+        <v>-1584.141776192311</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3766,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>69800</v>
+        <v>69900</v>
       </c>
       <c r="C93" t="n">
-        <v>69800</v>
+        <v>70100</v>
       </c>
       <c r="D93" t="n">
-        <v>69800</v>
+        <v>70100</v>
       </c>
       <c r="E93" t="n">
-        <v>69800</v>
+        <v>69900</v>
       </c>
       <c r="F93" t="n">
-        <v>1.4667</v>
+        <v>8.0876</v>
       </c>
       <c r="G93" t="n">
-        <v>69702.5</v>
+        <v>-1576.054176192311</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3802,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>69900</v>
+        <v>70000</v>
       </c>
       <c r="C94" t="n">
-        <v>69900</v>
+        <v>70000</v>
       </c>
       <c r="D94" t="n">
-        <v>69900</v>
+        <v>70000</v>
       </c>
       <c r="E94" t="n">
-        <v>69900</v>
+        <v>70000</v>
       </c>
       <c r="F94" t="n">
-        <v>1.4999</v>
+        <v>1.8811</v>
       </c>
       <c r="G94" t="n">
-        <v>69635</v>
+        <v>-1577.935276192311</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3838,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>69750</v>
+        <v>70450</v>
       </c>
       <c r="C95" t="n">
-        <v>69750</v>
+        <v>70450</v>
       </c>
       <c r="D95" t="n">
-        <v>69750</v>
+        <v>70450</v>
       </c>
       <c r="E95" t="n">
-        <v>69750</v>
+        <v>70450</v>
       </c>
       <c r="F95" t="n">
-        <v>4.1874</v>
+        <v>1.2123</v>
       </c>
       <c r="G95" t="n">
-        <v>69580</v>
+        <v>-1576.722976192311</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3874,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>69650</v>
+        <v>70600</v>
       </c>
       <c r="C96" t="n">
-        <v>69650</v>
+        <v>70900</v>
       </c>
       <c r="D96" t="n">
-        <v>69650</v>
+        <v>70900</v>
       </c>
       <c r="E96" t="n">
-        <v>69650</v>
+        <v>70600</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0128</v>
+        <v>1.704</v>
       </c>
       <c r="G96" t="n">
-        <v>69565</v>
+        <v>-1575.018976192311</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3910,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>69650</v>
+        <v>70900</v>
       </c>
       <c r="C97" t="n">
-        <v>69650</v>
+        <v>70900</v>
       </c>
       <c r="D97" t="n">
-        <v>69650</v>
+        <v>70900</v>
       </c>
       <c r="E97" t="n">
-        <v>69650</v>
+        <v>70900</v>
       </c>
       <c r="F97" t="n">
-        <v>5.7708</v>
+        <v>0.8124</v>
       </c>
       <c r="G97" t="n">
-        <v>69547.5</v>
+        <v>-1575.018976192311</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3946,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>69900</v>
+        <v>71000</v>
       </c>
       <c r="C98" t="n">
-        <v>69900</v>
+        <v>71000</v>
       </c>
       <c r="D98" t="n">
-        <v>69900</v>
+        <v>71000</v>
       </c>
       <c r="E98" t="n">
-        <v>69900</v>
+        <v>71000</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1434</v>
+        <v>2.6796</v>
       </c>
       <c r="G98" t="n">
-        <v>69557.5</v>
+        <v>-1572.339376192311</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3982,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>69600</v>
+        <v>70800</v>
       </c>
       <c r="C99" t="n">
-        <v>69600</v>
+        <v>70800</v>
       </c>
       <c r="D99" t="n">
-        <v>69600</v>
+        <v>70800</v>
       </c>
       <c r="E99" t="n">
-        <v>69600</v>
+        <v>70800</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8339</v>
+        <v>6.7465</v>
       </c>
       <c r="G99" t="n">
-        <v>69560</v>
+        <v>-1579.085876192311</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +4018,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>69750</v>
+        <v>71000</v>
       </c>
       <c r="C100" t="n">
-        <v>69750</v>
+        <v>71000</v>
       </c>
       <c r="D100" t="n">
-        <v>69750</v>
+        <v>71000</v>
       </c>
       <c r="E100" t="n">
-        <v>69750</v>
+        <v>71000</v>
       </c>
       <c r="F100" t="n">
-        <v>1.4547</v>
+        <v>9.975</v>
       </c>
       <c r="G100" t="n">
-        <v>69570</v>
+        <v>-1569.110876192311</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4054,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>69750</v>
+        <v>71200</v>
       </c>
       <c r="C101" t="n">
-        <v>69750</v>
+        <v>71200</v>
       </c>
       <c r="D101" t="n">
-        <v>69750</v>
+        <v>71200</v>
       </c>
       <c r="E101" t="n">
-        <v>69750</v>
+        <v>71200</v>
       </c>
       <c r="F101" t="n">
-        <v>37.3768</v>
+        <v>0.02</v>
       </c>
       <c r="G101" t="n">
-        <v>69597.5</v>
+        <v>-1569.090876192311</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4090,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>69750</v>
+        <v>70950</v>
       </c>
       <c r="C102" t="n">
-        <v>69750</v>
+        <v>70950</v>
       </c>
       <c r="D102" t="n">
-        <v>69750</v>
+        <v>70950</v>
       </c>
       <c r="E102" t="n">
-        <v>69750</v>
+        <v>70950</v>
       </c>
       <c r="F102" t="n">
-        <v>0.448</v>
+        <v>1.552</v>
       </c>
       <c r="G102" t="n">
-        <v>69625</v>
+        <v>-1570.642876192311</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4126,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>69750</v>
+        <v>71250</v>
       </c>
       <c r="C103" t="n">
-        <v>69750</v>
+        <v>71250</v>
       </c>
       <c r="D103" t="n">
-        <v>69750</v>
+        <v>71250</v>
       </c>
       <c r="E103" t="n">
-        <v>69750</v>
+        <v>71250</v>
       </c>
       <c r="F103" t="n">
-        <v>1.5487</v>
+        <v>5.8549</v>
       </c>
       <c r="G103" t="n">
-        <v>69645</v>
+        <v>-1564.787976192311</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4162,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>69900</v>
+        <v>70850</v>
       </c>
       <c r="C104" t="n">
-        <v>69950</v>
+        <v>70450</v>
       </c>
       <c r="D104" t="n">
-        <v>69950</v>
+        <v>70850</v>
       </c>
       <c r="E104" t="n">
-        <v>69900</v>
+        <v>70450</v>
       </c>
       <c r="F104" t="n">
-        <v>66.4949</v>
+        <v>2.9307</v>
       </c>
       <c r="G104" t="n">
-        <v>69695</v>
+        <v>-1567.718676192311</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4149,19 +4201,19 @@
         <v>69950</v>
       </c>
       <c r="C105" t="n">
-        <v>69950</v>
+        <v>70150</v>
       </c>
       <c r="D105" t="n">
-        <v>69950</v>
+        <v>70150</v>
       </c>
       <c r="E105" t="n">
         <v>69950</v>
       </c>
       <c r="F105" t="n">
-        <v>79.5433</v>
+        <v>1.68</v>
       </c>
       <c r="G105" t="n">
-        <v>69725</v>
+        <v>-1569.398676192311</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,22 +4234,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>69950</v>
+        <v>70000</v>
       </c>
       <c r="C106" t="n">
-        <v>69950</v>
+        <v>70000</v>
       </c>
       <c r="D106" t="n">
-        <v>69950</v>
+        <v>70000</v>
       </c>
       <c r="E106" t="n">
-        <v>69950</v>
+        <v>70000</v>
       </c>
       <c r="F106" t="n">
-        <v>39.4898</v>
+        <v>0.85</v>
       </c>
       <c r="G106" t="n">
-        <v>69745</v>
+        <v>-1570.248676192311</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4218,22 +4270,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>69950</v>
+        <v>69700</v>
       </c>
       <c r="C107" t="n">
-        <v>69950</v>
+        <v>69700</v>
       </c>
       <c r="D107" t="n">
-        <v>69950</v>
+        <v>69700</v>
       </c>
       <c r="E107" t="n">
-        <v>69950</v>
+        <v>69700</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0282</v>
+        <v>5.8549</v>
       </c>
       <c r="G107" t="n">
-        <v>69787.5</v>
+        <v>-1576.103576192311</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4306,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>69900</v>
+        <v>69550</v>
       </c>
       <c r="C108" t="n">
-        <v>69950</v>
+        <v>69450</v>
       </c>
       <c r="D108" t="n">
-        <v>69950</v>
+        <v>69550</v>
       </c>
       <c r="E108" t="n">
-        <v>69900</v>
+        <v>69450</v>
       </c>
       <c r="F108" t="n">
-        <v>38.3647</v>
+        <v>15</v>
       </c>
       <c r="G108" t="n">
-        <v>69802.5</v>
+        <v>-1591.103576192311</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,22 +4342,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>69950</v>
+        <v>69550</v>
       </c>
       <c r="C109" t="n">
-        <v>69950</v>
+        <v>69400</v>
       </c>
       <c r="D109" t="n">
-        <v>69950</v>
+        <v>69550</v>
       </c>
       <c r="E109" t="n">
-        <v>69950</v>
+        <v>69400</v>
       </c>
       <c r="F109" t="n">
-        <v>112.2296</v>
+        <v>7.3571</v>
       </c>
       <c r="G109" t="n">
-        <v>69820</v>
+        <v>-1598.460676192311</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,31 +4378,35 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>69950</v>
+        <v>69200</v>
       </c>
       <c r="C110" t="n">
-        <v>69950</v>
+        <v>69200</v>
       </c>
       <c r="D110" t="n">
-        <v>69950</v>
+        <v>69200</v>
       </c>
       <c r="E110" t="n">
-        <v>69950</v>
+        <v>69200</v>
       </c>
       <c r="F110" t="n">
-        <v>6.4069</v>
+        <v>0.6239</v>
       </c>
       <c r="G110" t="n">
-        <v>69827.5</v>
+        <v>-1599.084576192311</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>69400</v>
+      </c>
+      <c r="K110" t="n">
+        <v>69400</v>
+      </c>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
@@ -4362,22 +4418,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>69750</v>
+        <v>69200</v>
       </c>
       <c r="C111" t="n">
-        <v>69950</v>
+        <v>69200</v>
       </c>
       <c r="D111" t="n">
-        <v>69950</v>
+        <v>69200</v>
       </c>
       <c r="E111" t="n">
-        <v>69750</v>
+        <v>69200</v>
       </c>
       <c r="F111" t="n">
-        <v>11.3802</v>
+        <v>0.8517</v>
       </c>
       <c r="G111" t="n">
-        <v>69817.5</v>
+        <v>-1599.084576192311</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -4386,12 +4442,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>69950</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
+        <v>69200</v>
+      </c>
+      <c r="K111" t="n">
+        <v>69400</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M111" t="n">
@@ -4404,22 +4462,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>69950</v>
+        <v>69350</v>
       </c>
       <c r="C112" t="n">
-        <v>69950</v>
+        <v>69350</v>
       </c>
       <c r="D112" t="n">
-        <v>69950</v>
+        <v>69350</v>
       </c>
       <c r="E112" t="n">
-        <v>69950</v>
+        <v>69350</v>
       </c>
       <c r="F112" t="n">
-        <v>1.3258</v>
+        <v>0.059120403749</v>
       </c>
       <c r="G112" t="n">
-        <v>69825</v>
+        <v>-1599.025455788562</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -4428,12 +4486,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>69950</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
+        <v>69200</v>
+      </c>
+      <c r="K112" t="n">
+        <v>69400</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M112" t="n">
@@ -4446,38 +4506,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>70000</v>
+        <v>68900</v>
       </c>
       <c r="C113" t="n">
-        <v>70000</v>
+        <v>68750</v>
       </c>
       <c r="D113" t="n">
-        <v>70000</v>
+        <v>68900</v>
       </c>
       <c r="E113" t="n">
-        <v>70000</v>
+        <v>68750</v>
       </c>
       <c r="F113" t="n">
-        <v>10.5606</v>
+        <v>0.6859</v>
       </c>
       <c r="G113" t="n">
-        <v>69835</v>
+        <v>-1599.711355788562</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>69950</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4488,22 +4542,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>70300</v>
+        <v>69350</v>
       </c>
       <c r="C114" t="n">
-        <v>70300</v>
+        <v>69350</v>
       </c>
       <c r="D114" t="n">
-        <v>70300</v>
+        <v>69350</v>
       </c>
       <c r="E114" t="n">
-        <v>70300</v>
+        <v>69350</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0161</v>
+        <v>7.311</v>
       </c>
       <c r="G114" t="n">
-        <v>69855</v>
+        <v>-1592.400355788562</v>
       </c>
       <c r="H114" t="n">
         <v>1</v>
@@ -4512,14 +4566,12 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>70000</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>68750</v>
+      </c>
+      <c r="K114" t="n">
+        <v>68750</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4530,36 +4582,36 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>69750</v>
+        <v>69550</v>
       </c>
       <c r="C115" t="n">
-        <v>69750</v>
+        <v>69550</v>
       </c>
       <c r="D115" t="n">
-        <v>69750</v>
+        <v>69550</v>
       </c>
       <c r="E115" t="n">
-        <v>69750</v>
+        <v>69550</v>
       </c>
       <c r="F115" t="n">
-        <v>0.05</v>
+        <v>0.03019410496</v>
       </c>
       <c r="G115" t="n">
-        <v>69855</v>
+        <v>-1592.370161683602</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>70300</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>68750</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M115" t="n">
@@ -4572,36 +4624,36 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>70300</v>
+        <v>69100</v>
       </c>
       <c r="C116" t="n">
-        <v>70300</v>
+        <v>69100</v>
       </c>
       <c r="D116" t="n">
-        <v>70300</v>
+        <v>69100</v>
       </c>
       <c r="E116" t="n">
-        <v>70300</v>
+        <v>69100</v>
       </c>
       <c r="F116" t="n">
-        <v>0.3079</v>
+        <v>3.6439</v>
       </c>
       <c r="G116" t="n">
-        <v>69887.5</v>
+        <v>-1596.014061683602</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>69750</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>68750</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M116" t="n">
@@ -4614,38 +4666,32 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>70350</v>
+        <v>69600</v>
       </c>
       <c r="C117" t="n">
-        <v>70350</v>
+        <v>69600</v>
       </c>
       <c r="D117" t="n">
-        <v>70350</v>
+        <v>69600</v>
       </c>
       <c r="E117" t="n">
-        <v>70350</v>
+        <v>69600</v>
       </c>
       <c r="F117" t="n">
-        <v>1.1383</v>
+        <v>0.031925287356</v>
       </c>
       <c r="G117" t="n">
-        <v>69922.5</v>
+        <v>-1595.982136396246</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>70300</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4656,38 +4702,32 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>70650</v>
+        <v>69600</v>
       </c>
       <c r="C118" t="n">
-        <v>70700</v>
+        <v>69600</v>
       </c>
       <c r="D118" t="n">
-        <v>70700</v>
+        <v>69600</v>
       </c>
       <c r="E118" t="n">
-        <v>70650</v>
+        <v>69600</v>
       </c>
       <c r="F118" t="n">
-        <v>5.0483</v>
+        <v>0.268074712644</v>
       </c>
       <c r="G118" t="n">
-        <v>69960</v>
+        <v>-1595.982136396246</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>70350</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4698,22 +4738,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>70950</v>
+        <v>69800</v>
       </c>
       <c r="C119" t="n">
-        <v>70950</v>
+        <v>69800</v>
       </c>
       <c r="D119" t="n">
-        <v>70950</v>
+        <v>69800</v>
       </c>
       <c r="E119" t="n">
-        <v>70950</v>
+        <v>69800</v>
       </c>
       <c r="F119" t="n">
-        <v>1.0622</v>
+        <v>0.672</v>
       </c>
       <c r="G119" t="n">
-        <v>70027.5</v>
+        <v>-1595.310136396246</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4723,11 +4763,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4738,22 +4774,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>71000</v>
+        <v>69950</v>
       </c>
       <c r="C120" t="n">
-        <v>71100</v>
+        <v>69950</v>
       </c>
       <c r="D120" t="n">
-        <v>71100</v>
+        <v>69950</v>
       </c>
       <c r="E120" t="n">
-        <v>71000</v>
+        <v>69950</v>
       </c>
       <c r="F120" t="n">
-        <v>0.95</v>
+        <v>0.15</v>
       </c>
       <c r="G120" t="n">
-        <v>70090</v>
+        <v>-1595.160136396246</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4763,11 +4799,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4778,36 +4810,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>71000</v>
+        <v>69800</v>
       </c>
       <c r="C121" t="n">
-        <v>71000</v>
+        <v>69800</v>
       </c>
       <c r="D121" t="n">
-        <v>71000</v>
+        <v>69800</v>
       </c>
       <c r="E121" t="n">
-        <v>71000</v>
+        <v>69800</v>
       </c>
       <c r="F121" t="n">
-        <v>2.1363</v>
+        <v>0.5608</v>
       </c>
       <c r="G121" t="n">
-        <v>70152.5</v>
+        <v>-1595.720936396246</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4818,22 +4846,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>71450</v>
+        <v>69800</v>
       </c>
       <c r="C122" t="n">
-        <v>71450</v>
+        <v>69800</v>
       </c>
       <c r="D122" t="n">
-        <v>71450</v>
+        <v>69800</v>
       </c>
       <c r="E122" t="n">
-        <v>71450</v>
+        <v>69800</v>
       </c>
       <c r="F122" t="n">
-        <v>0.428</v>
+        <v>1.4667</v>
       </c>
       <c r="G122" t="n">
-        <v>70237.5</v>
+        <v>-1595.720936396246</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4843,11 +4871,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4858,68 +4882,64 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>71450</v>
+        <v>69900</v>
       </c>
       <c r="C123" t="n">
-        <v>71450</v>
+        <v>69900</v>
       </c>
       <c r="D123" t="n">
-        <v>71450</v>
+        <v>69900</v>
       </c>
       <c r="E123" t="n">
-        <v>71450</v>
+        <v>69900</v>
       </c>
       <c r="F123" t="n">
-        <v>2.7083</v>
+        <v>1.4999</v>
       </c>
       <c r="G123" t="n">
-        <v>70322.5</v>
+        <v>-1594.221036396246</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
-        <v>1.036363636363636</v>
-      </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>71500</v>
+        <v>69750</v>
       </c>
       <c r="C124" t="n">
-        <v>71500</v>
+        <v>69750</v>
       </c>
       <c r="D124" t="n">
-        <v>71500</v>
+        <v>69750</v>
       </c>
       <c r="E124" t="n">
-        <v>71500</v>
+        <v>69750</v>
       </c>
       <c r="F124" t="n">
-        <v>13.485</v>
+        <v>4.1874</v>
       </c>
       <c r="G124" t="n">
-        <v>70402.5</v>
+        <v>-1598.408436396246</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4934,28 +4954,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>71500</v>
+        <v>69650</v>
       </c>
       <c r="C125" t="n">
-        <v>71500</v>
+        <v>69650</v>
       </c>
       <c r="D125" t="n">
-        <v>71500</v>
+        <v>69650</v>
       </c>
       <c r="E125" t="n">
-        <v>71500</v>
+        <v>69650</v>
       </c>
       <c r="F125" t="n">
-        <v>1.763</v>
+        <v>0.0128</v>
       </c>
       <c r="G125" t="n">
-        <v>70480</v>
+        <v>-1598.421236396246</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -4970,28 +4990,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>71500</v>
+        <v>69650</v>
       </c>
       <c r="C126" t="n">
-        <v>71500</v>
+        <v>69650</v>
       </c>
       <c r="D126" t="n">
-        <v>71500</v>
+        <v>69650</v>
       </c>
       <c r="E126" t="n">
-        <v>71500</v>
+        <v>69650</v>
       </c>
       <c r="F126" t="n">
-        <v>5.789</v>
+        <v>5.7708</v>
       </c>
       <c r="G126" t="n">
-        <v>70557.5</v>
+        <v>-1598.421236396246</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5006,31 +5026,35 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>71450</v>
+        <v>69900</v>
       </c>
       <c r="C127" t="n">
-        <v>71450</v>
+        <v>69900</v>
       </c>
       <c r="D127" t="n">
-        <v>71450</v>
+        <v>69900</v>
       </c>
       <c r="E127" t="n">
-        <v>71450</v>
+        <v>69900</v>
       </c>
       <c r="F127" t="n">
-        <v>2.5259</v>
+        <v>0.1434</v>
       </c>
       <c r="G127" t="n">
-        <v>70632.5</v>
+        <v>-1598.277836396246</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>69650</v>
+      </c>
+      <c r="K127" t="n">
+        <v>69650</v>
+      </c>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
@@ -5042,32 +5066,40 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>70950</v>
+        <v>69600</v>
       </c>
       <c r="C128" t="n">
-        <v>70900</v>
+        <v>69600</v>
       </c>
       <c r="D128" t="n">
-        <v>70950</v>
+        <v>69600</v>
       </c>
       <c r="E128" t="n">
-        <v>70900</v>
+        <v>69600</v>
       </c>
       <c r="F128" t="n">
-        <v>4.6191</v>
+        <v>0.8339</v>
       </c>
       <c r="G128" t="n">
-        <v>70685</v>
+        <v>-1599.111736396246</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>69900</v>
+      </c>
+      <c r="K128" t="n">
+        <v>69650</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5078,32 +5110,40 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>71150</v>
+        <v>69750</v>
       </c>
       <c r="C129" t="n">
-        <v>71150</v>
+        <v>69750</v>
       </c>
       <c r="D129" t="n">
-        <v>71150</v>
+        <v>69750</v>
       </c>
       <c r="E129" t="n">
-        <v>71150</v>
+        <v>69750</v>
       </c>
       <c r="F129" t="n">
-        <v>1.656</v>
+        <v>1.4547</v>
       </c>
       <c r="G129" t="n">
-        <v>70745</v>
+        <v>-1597.657036396246</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>69600</v>
+      </c>
+      <c r="K129" t="n">
+        <v>69650</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5114,31 +5154,35 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>71150</v>
+        <v>69750</v>
       </c>
       <c r="C130" t="n">
-        <v>71150</v>
+        <v>69750</v>
       </c>
       <c r="D130" t="n">
-        <v>71150</v>
+        <v>69750</v>
       </c>
       <c r="E130" t="n">
-        <v>71150</v>
+        <v>69750</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5621</v>
+        <v>37.3768</v>
       </c>
       <c r="G130" t="n">
-        <v>70805</v>
+        <v>-1597.657036396246</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>69750</v>
+      </c>
+      <c r="K130" t="n">
+        <v>69750</v>
+      </c>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
@@ -5150,32 +5194,40 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>71200</v>
+        <v>69750</v>
       </c>
       <c r="C131" t="n">
-        <v>71200</v>
+        <v>69750</v>
       </c>
       <c r="D131" t="n">
-        <v>71200</v>
+        <v>69750</v>
       </c>
       <c r="E131" t="n">
-        <v>71200</v>
+        <v>69750</v>
       </c>
       <c r="F131" t="n">
-        <v>4.3548</v>
+        <v>0.448</v>
       </c>
       <c r="G131" t="n">
-        <v>70877.5</v>
+        <v>-1597.657036396246</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>69750</v>
+      </c>
+      <c r="K131" t="n">
+        <v>69750</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5186,36 +5238,1202 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>69750</v>
+      </c>
+      <c r="C132" t="n">
+        <v>69750</v>
+      </c>
+      <c r="D132" t="n">
+        <v>69750</v>
+      </c>
+      <c r="E132" t="n">
+        <v>69750</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1.5487</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-1597.657036396246</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>69750</v>
+      </c>
+      <c r="K132" t="n">
+        <v>69750</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>69900</v>
+      </c>
+      <c r="C133" t="n">
+        <v>69950</v>
+      </c>
+      <c r="D133" t="n">
+        <v>69950</v>
+      </c>
+      <c r="E133" t="n">
+        <v>69900</v>
+      </c>
+      <c r="F133" t="n">
+        <v>66.4949</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-1531.162136396247</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>69750</v>
+      </c>
+      <c r="K133" t="n">
+        <v>69750</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>69950</v>
+      </c>
+      <c r="C134" t="n">
+        <v>69950</v>
+      </c>
+      <c r="D134" t="n">
+        <v>69950</v>
+      </c>
+      <c r="E134" t="n">
+        <v>69950</v>
+      </c>
+      <c r="F134" t="n">
+        <v>79.5433</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1531.162136396247</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>69950</v>
+      </c>
+      <c r="K134" t="n">
+        <v>69750</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>69950</v>
+      </c>
+      <c r="C135" t="n">
+        <v>69950</v>
+      </c>
+      <c r="D135" t="n">
+        <v>69950</v>
+      </c>
+      <c r="E135" t="n">
+        <v>69950</v>
+      </c>
+      <c r="F135" t="n">
+        <v>39.4898</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-1531.162136396247</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>69950</v>
+      </c>
+      <c r="K135" t="n">
+        <v>69750</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>69950</v>
+      </c>
+      <c r="C136" t="n">
+        <v>69950</v>
+      </c>
+      <c r="D136" t="n">
+        <v>69950</v>
+      </c>
+      <c r="E136" t="n">
+        <v>69950</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0282</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1531.162136396247</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>69900</v>
+      </c>
+      <c r="C137" t="n">
+        <v>69950</v>
+      </c>
+      <c r="D137" t="n">
+        <v>69950</v>
+      </c>
+      <c r="E137" t="n">
+        <v>69900</v>
+      </c>
+      <c r="F137" t="n">
+        <v>38.3647</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-1531.162136396247</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>69950</v>
+      </c>
+      <c r="C138" t="n">
+        <v>69950</v>
+      </c>
+      <c r="D138" t="n">
+        <v>69950</v>
+      </c>
+      <c r="E138" t="n">
+        <v>69950</v>
+      </c>
+      <c r="F138" t="n">
+        <v>112.2296</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1531.162136396247</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>69950</v>
+      </c>
+      <c r="C139" t="n">
+        <v>69950</v>
+      </c>
+      <c r="D139" t="n">
+        <v>69950</v>
+      </c>
+      <c r="E139" t="n">
+        <v>69950</v>
+      </c>
+      <c r="F139" t="n">
+        <v>6.4069</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1531.162136396247</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>69950</v>
+      </c>
+      <c r="K139" t="n">
+        <v>69950</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>69750</v>
+      </c>
+      <c r="C140" t="n">
+        <v>69950</v>
+      </c>
+      <c r="D140" t="n">
+        <v>69950</v>
+      </c>
+      <c r="E140" t="n">
+        <v>69750</v>
+      </c>
+      <c r="F140" t="n">
+        <v>11.3802</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1531.162136396247</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>69950</v>
+      </c>
+      <c r="K140" t="n">
+        <v>69950</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>69950</v>
+      </c>
+      <c r="C141" t="n">
+        <v>69950</v>
+      </c>
+      <c r="D141" t="n">
+        <v>69950</v>
+      </c>
+      <c r="E141" t="n">
+        <v>69950</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1.3258</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1531.162136396247</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>69950</v>
+      </c>
+      <c r="K141" t="n">
+        <v>69950</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>70000</v>
+      </c>
+      <c r="C142" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D142" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E142" t="n">
+        <v>70000</v>
+      </c>
+      <c r="F142" t="n">
+        <v>10.5606</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1520.601536396247</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>69950</v>
+      </c>
+      <c r="K142" t="n">
+        <v>69950</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>70300</v>
+      </c>
+      <c r="C143" t="n">
+        <v>70300</v>
+      </c>
+      <c r="D143" t="n">
+        <v>70300</v>
+      </c>
+      <c r="E143" t="n">
+        <v>70300</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.0161</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-1520.585436396246</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>70000</v>
+      </c>
+      <c r="K143" t="n">
+        <v>69950</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>69750</v>
+      </c>
+      <c r="C144" t="n">
+        <v>69750</v>
+      </c>
+      <c r="D144" t="n">
+        <v>69750</v>
+      </c>
+      <c r="E144" t="n">
+        <v>69750</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-1520.635436396246</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>70300</v>
+      </c>
+      <c r="K144" t="n">
+        <v>69950</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>70300</v>
+      </c>
+      <c r="C145" t="n">
+        <v>70300</v>
+      </c>
+      <c r="D145" t="n">
+        <v>70300</v>
+      </c>
+      <c r="E145" t="n">
+        <v>70300</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.3079</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-1520.327536396246</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>69750</v>
+      </c>
+      <c r="K145" t="n">
+        <v>69950</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>70350</v>
+      </c>
+      <c r="C146" t="n">
+        <v>70350</v>
+      </c>
+      <c r="D146" t="n">
+        <v>70350</v>
+      </c>
+      <c r="E146" t="n">
+        <v>70350</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1.1383</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-1519.189236396246</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>69950</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>70650</v>
+      </c>
+      <c r="C147" t="n">
+        <v>70700</v>
+      </c>
+      <c r="D147" t="n">
+        <v>70700</v>
+      </c>
+      <c r="E147" t="n">
+        <v>70650</v>
+      </c>
+      <c r="F147" t="n">
+        <v>5.0483</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-1514.140936396246</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>69950</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>70950</v>
+      </c>
+      <c r="C148" t="n">
+        <v>70950</v>
+      </c>
+      <c r="D148" t="n">
+        <v>70950</v>
+      </c>
+      <c r="E148" t="n">
+        <v>70950</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1.0622</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-1513.078736396246</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>69950</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>71000</v>
+      </c>
+      <c r="C149" t="n">
+        <v>71100</v>
+      </c>
+      <c r="D149" t="n">
+        <v>71100</v>
+      </c>
+      <c r="E149" t="n">
+        <v>71000</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-1512.128736396246</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>69950</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>71000</v>
+      </c>
+      <c r="C150" t="n">
+        <v>71000</v>
+      </c>
+      <c r="D150" t="n">
+        <v>71000</v>
+      </c>
+      <c r="E150" t="n">
+        <v>71000</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2.1363</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-1514.265036396246</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>69950</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>71450</v>
+      </c>
+      <c r="C151" t="n">
+        <v>71450</v>
+      </c>
+      <c r="D151" t="n">
+        <v>71450</v>
+      </c>
+      <c r="E151" t="n">
+        <v>71450</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-1513.837036396246</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>69950</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>71450</v>
+      </c>
+      <c r="C152" t="n">
+        <v>71450</v>
+      </c>
+      <c r="D152" t="n">
+        <v>71450</v>
+      </c>
+      <c r="E152" t="n">
+        <v>71450</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2.7083</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-1513.837036396246</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>69950</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1.01644388849178</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>71500</v>
+      </c>
+      <c r="C153" t="n">
+        <v>71500</v>
+      </c>
+      <c r="D153" t="n">
+        <v>71500</v>
+      </c>
+      <c r="E153" t="n">
+        <v>71500</v>
+      </c>
+      <c r="F153" t="n">
+        <v>13.485</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-1500.352036396246</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>71500</v>
+      </c>
+      <c r="C154" t="n">
+        <v>71500</v>
+      </c>
+      <c r="D154" t="n">
+        <v>71500</v>
+      </c>
+      <c r="E154" t="n">
+        <v>71500</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1.763</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-1500.352036396246</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>71500</v>
+      </c>
+      <c r="C155" t="n">
+        <v>71500</v>
+      </c>
+      <c r="D155" t="n">
+        <v>71500</v>
+      </c>
+      <c r="E155" t="n">
+        <v>71500</v>
+      </c>
+      <c r="F155" t="n">
+        <v>5.789</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-1500.352036396246</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>71450</v>
+      </c>
+      <c r="C156" t="n">
+        <v>71450</v>
+      </c>
+      <c r="D156" t="n">
+        <v>71450</v>
+      </c>
+      <c r="E156" t="n">
+        <v>71450</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2.5259</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-1502.877936396246</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>70950</v>
+      </c>
+      <c r="C157" t="n">
+        <v>70900</v>
+      </c>
+      <c r="D157" t="n">
+        <v>70950</v>
+      </c>
+      <c r="E157" t="n">
+        <v>70900</v>
+      </c>
+      <c r="F157" t="n">
+        <v>4.6191</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-1507.497036396246</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>71150</v>
+      </c>
+      <c r="C158" t="n">
+        <v>71150</v>
+      </c>
+      <c r="D158" t="n">
+        <v>71150</v>
+      </c>
+      <c r="E158" t="n">
+        <v>71150</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1.656</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-1505.841036396246</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>71150</v>
+      </c>
+      <c r="C159" t="n">
+        <v>71150</v>
+      </c>
+      <c r="D159" t="n">
+        <v>71150</v>
+      </c>
+      <c r="E159" t="n">
+        <v>71150</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.5621</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-1505.841036396246</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
         <v>71200</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C160" t="n">
         <v>71200</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D160" t="n">
         <v>71200</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E160" t="n">
         <v>71200</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F160" t="n">
+        <v>4.3548</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-1501.486236396246</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>71200</v>
+      </c>
+      <c r="C161" t="n">
+        <v>71200</v>
+      </c>
+      <c r="D161" t="n">
+        <v>71200</v>
+      </c>
+      <c r="E161" t="n">
+        <v>71200</v>
+      </c>
+      <c r="F161" t="n">
         <v>2.8552</v>
       </c>
-      <c r="G132" t="n">
-        <v>70940</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="G161" t="n">
+        <v>-1501.486236396246</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest XMR.xlsx
+++ b/BackTest/2019-10-29 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N161"/>
+  <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +550,15 @@
         <v>-18.03148328954301</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>69900</v>
-      </c>
-      <c r="K5" t="n">
-        <v>69900</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,26 +583,15 @@
         <v>-18.03148328954301</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>70150</v>
-      </c>
-      <c r="K6" t="n">
-        <v>69900</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -650,22 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>69900</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -690,22 +649,15 @@
         <v>-6.261283289543007</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>70150</v>
-      </c>
-      <c r="K8" t="n">
-        <v>70150</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -730,24 +682,15 @@
         <v>-6.261283289543007</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>70150</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -772,24 +715,15 @@
         <v>-6.363383289543007</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>70150</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -814,18 +748,15 @@
         <v>-6.363383289543007</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -850,18 +781,15 @@
         <v>-6.171083289543007</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -886,18 +814,15 @@
         <v>-11.07108328954301</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -924,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -960,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -996,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1032,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1068,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1104,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1140,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1176,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1212,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1248,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1284,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1320,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1356,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1392,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1428,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1464,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1500,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1536,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1572,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1608,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1644,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1680,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1714,22 +1573,19 @@
         <v>-5603.421076192311</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>69550</v>
       </c>
       <c r="J36" t="n">
         <v>69550</v>
       </c>
-      <c r="K36" t="n">
-        <v>69550</v>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1754,26 +1610,21 @@
         <v>-5603.421076192311</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>69550</v>
       </c>
-      <c r="K37" t="n">
-        <v>69550</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1800,22 +1651,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>69550</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1842,16 +1690,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1878,16 +1723,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1914,16 +1756,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1950,16 +1789,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1986,16 +1822,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2022,16 +1855,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2058,16 +1888,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2092,18 +1919,19 @@
         <v>-563.9763761923114</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="J46" t="n">
+        <v>69550</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2130,16 +1958,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2166,16 +1997,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2202,16 +2036,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2238,16 +2069,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2272,18 +2100,19 @@
         <v>-563.9763761923114</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="J51" t="n">
+        <v>69550</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2308,18 +2137,23 @@
         <v>-563.9763761923114</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="J52" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2344,18 +2178,23 @@
         <v>-563.9763761923114</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="J53" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2380,18 +2219,19 @@
         <v>-563.9763761923114</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="J54" t="n">
+        <v>69550</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2416,18 +2256,23 @@
         <v>-563.9763761923114</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="J55" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2454,16 +2299,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2488,18 +2336,19 @@
         <v>-563.9763761923114</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="J57" t="n">
+        <v>69550</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2524,18 +2373,23 @@
         <v>-563.9763761923114</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="J58" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2560,18 +2414,23 @@
         <v>-563.9763761923114</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="J59" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2596,18 +2455,23 @@
         <v>-563.9763761923114</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="J60" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2634,16 +2498,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2670,16 +2537,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2704,18 +2574,23 @@
         <v>-563.9763761923114</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="J63" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2742,16 +2617,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2778,16 +2656,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2812,18 +2693,23 @@
         <v>-899.9763761923114</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="J66" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2848,18 +2734,23 @@
         <v>-5743.976376192311</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>69500</v>
+      </c>
+      <c r="J67" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2884,18 +2775,23 @@
         <v>-5743.976376192311</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="J68" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2922,16 +2818,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2958,16 +2857,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2994,16 +2896,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3030,16 +2935,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3066,16 +2974,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3100,18 +3011,23 @@
         <v>-5743.976376192311</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="J74" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3136,18 +3052,23 @@
         <v>-5743.976376192311</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="J75" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3172,18 +3093,23 @@
         <v>-5743.976376192311</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="J76" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3210,16 +3136,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3246,16 +3175,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3282,16 +3214,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3318,16 +3253,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3354,16 +3292,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3390,16 +3331,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3426,16 +3370,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3462,16 +3409,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3498,16 +3448,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3534,16 +3487,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3570,16 +3526,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3606,16 +3565,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3642,16 +3604,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3678,16 +3643,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3714,16 +3682,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3750,16 +3721,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3786,16 +3760,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3822,16 +3799,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3858,16 +3838,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3894,16 +3877,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3930,16 +3916,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3966,16 +3955,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4002,16 +3994,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4038,16 +4033,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4074,16 +4072,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4110,16 +4111,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4146,16 +4150,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4182,16 +4189,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4218,16 +4228,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4254,16 +4267,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4290,16 +4306,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4326,16 +4345,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4362,16 +4384,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4396,22 +4421,21 @@
         <v>-1599.084576192311</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>69400</v>
-      </c>
-      <c r="K110" t="n">
-        <v>69400</v>
-      </c>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4436,26 +4460,21 @@
         <v>-1599.084576192311</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>69200</v>
-      </c>
-      <c r="K111" t="n">
-        <v>69400</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4480,26 +4499,21 @@
         <v>-1599.025455788562</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>69200</v>
-      </c>
-      <c r="K112" t="n">
-        <v>69400</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4526,16 +4540,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4560,22 +4577,21 @@
         <v>-1592.400355788562</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>68750</v>
-      </c>
-      <c r="K114" t="n">
-        <v>68750</v>
-      </c>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4600,24 +4616,23 @@
         <v>-1592.370161683602</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>68750</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="J115" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4642,24 +4657,23 @@
         <v>-1596.014061683602</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>68750</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="J116" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4686,16 +4700,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4722,16 +4739,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4756,18 +4776,23 @@
         <v>-1595.310136396246</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>69600</v>
+      </c>
+      <c r="J119" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4792,18 +4817,23 @@
         <v>-1595.160136396246</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>69800</v>
+      </c>
+      <c r="J120" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4828,18 +4858,23 @@
         <v>-1595.720936396246</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>69950</v>
+      </c>
+      <c r="J121" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4866,16 +4901,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4900,18 +4938,23 @@
         <v>-1594.221036396246</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>69800</v>
+      </c>
+      <c r="J123" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4936,18 +4979,23 @@
         <v>-1598.408436396246</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>69900</v>
+      </c>
+      <c r="J124" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4972,18 +5020,23 @@
         <v>-1598.421236396246</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>69750</v>
+      </c>
+      <c r="J125" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5010,16 +5063,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5044,22 +5100,23 @@
         <v>-1598.277836396246</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>69650</v>
       </c>
       <c r="J127" t="n">
-        <v>69650</v>
-      </c>
-      <c r="K127" t="n">
-        <v>69650</v>
-      </c>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5084,26 +5141,21 @@
         <v>-1599.111736396246</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>69900</v>
-      </c>
-      <c r="K128" t="n">
-        <v>69650</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5128,26 +5180,23 @@
         <v>-1597.657036396246</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>69600</v>
       </c>
       <c r="J129" t="n">
-        <v>69600</v>
-      </c>
-      <c r="K129" t="n">
-        <v>69650</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5172,22 +5221,21 @@
         <v>-1597.657036396246</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>69750</v>
-      </c>
-      <c r="K130" t="n">
-        <v>69750</v>
-      </c>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5212,26 +5260,23 @@
         <v>-1597.657036396246</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>69750</v>
       </c>
       <c r="J131" t="n">
-        <v>69750</v>
-      </c>
-      <c r="K131" t="n">
-        <v>69750</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5256,26 +5301,23 @@
         <v>-1597.657036396246</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>69750</v>
       </c>
       <c r="J132" t="n">
-        <v>69750</v>
-      </c>
-      <c r="K132" t="n">
-        <v>69750</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5300,22 +5342,21 @@
         <v>-1531.162136396247</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>69750</v>
-      </c>
-      <c r="K133" t="n">
-        <v>69750</v>
-      </c>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5340,26 +5381,21 @@
         <v>-1531.162136396247</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>69950</v>
-      </c>
-      <c r="K134" t="n">
-        <v>69750</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5384,26 +5420,21 @@
         <v>-1531.162136396247</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>69950</v>
-      </c>
-      <c r="K135" t="n">
-        <v>69750</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5430,16 +5461,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5466,16 +5500,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5502,16 +5539,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5536,22 +5576,21 @@
         <v>-1531.162136396247</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>69950</v>
-      </c>
-      <c r="K139" t="n">
-        <v>69950</v>
-      </c>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5576,26 +5615,21 @@
         <v>-1531.162136396247</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>69950</v>
-      </c>
-      <c r="K140" t="n">
-        <v>69950</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5620,26 +5654,21 @@
         <v>-1531.162136396247</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>69950</v>
-      </c>
-      <c r="K141" t="n">
-        <v>69950</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5664,26 +5693,21 @@
         <v>-1520.601536396247</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>69950</v>
-      </c>
-      <c r="K142" t="n">
-        <v>69950</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5708,26 +5732,21 @@
         <v>-1520.585436396246</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>70000</v>
-      </c>
-      <c r="K143" t="n">
-        <v>69950</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5752,26 +5771,21 @@
         <v>-1520.635436396246</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>70300</v>
-      </c>
-      <c r="K144" t="n">
-        <v>69950</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5796,26 +5810,23 @@
         <v>-1520.327536396246</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>69750</v>
       </c>
       <c r="J145" t="n">
-        <v>69750</v>
-      </c>
-      <c r="K145" t="n">
-        <v>69950</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5842,22 +5853,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>69950</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5884,22 +5892,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>69950</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5926,22 +5931,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>69950</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5968,22 +5970,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>69950</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6010,22 +6009,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>69950</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6050,24 +6046,21 @@
         <v>-1513.837036396246</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>69950</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1.022318475916607</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6092,24 +6085,15 @@
         <v>-1513.837036396246</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>69950</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1.01644388849178</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6134,18 +6118,15 @@
         <v>-1500.352036396246</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6170,18 +6151,15 @@
         <v>-1500.352036396246</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6206,18 +6184,15 @@
         <v>-1500.352036396246</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6242,18 +6217,15 @@
         <v>-1502.877936396246</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6278,18 +6250,15 @@
         <v>-1507.497036396246</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6314,18 +6283,15 @@
         <v>-1505.841036396246</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6350,18 +6316,15 @@
         <v>-1505.841036396246</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6386,18 +6349,15 @@
         <v>-1501.486236396246</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6422,20 +6382,17 @@
         <v>-1501.486236396246</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest XMR.xlsx
+++ b/BackTest/2019-10-29 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-12.83078328954301</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-6.261283289543007</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-6.261283289543007</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-6.363383289543007</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-6.363383289543007</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-6.171083289543007</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-11.07108328954301</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-10.97108328954301</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-10.92107619231101</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-86.92107619231101</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-162.921076192311</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>6141.578923807689</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>6141.578923807689</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>834.5789238076886</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>834.5789238076886</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>834.5789238076886</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>834.5789238076886</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>834.5789238076886</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>834.5789238076886</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>834.5789238076886</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1738,10 +1738,14 @@
         <v>-5603.421076192311</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J41" t="n">
+        <v>69550</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
@@ -1771,11 +1775,19 @@
         <v>-5603.421076192311</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J42" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +1819,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1870,10 +1888,14 @@
         <v>-563.9763761923114</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>69350</v>
+      </c>
+      <c r="J45" t="n">
+        <v>69350</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
@@ -1906,8 +1928,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>69350</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +1967,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>69350</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -4477,7 +4511,7 @@
         <v>-1598.408436396246</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4544,7 @@
         <v>-1598.421236396246</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4577,7 @@
         <v>-1598.421236396246</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4610,7 @@
         <v>-1598.277836396246</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4643,7 @@
         <v>-1599.111736396246</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4676,7 @@
         <v>-1597.657036396246</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4709,7 @@
         <v>-1597.657036396246</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4742,7 @@
         <v>-1597.657036396246</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5005,17 +5039,11 @@
         <v>-1531.162136396247</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>69950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5044,17 +5072,11 @@
         <v>-1531.162136396247</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>69950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5083,17 +5105,11 @@
         <v>-1520.601536396247</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>69950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5122,17 +5138,11 @@
         <v>-1520.585436396246</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>70000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5161,17 +5171,11 @@
         <v>-1520.635436396246</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>70300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5200,17 +5204,11 @@
         <v>-1520.327536396246</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>69750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5239,17 +5237,11 @@
         <v>-1519.189236396246</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>70300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5282,11 +5274,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5319,11 +5307,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5356,11 +5340,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5393,11 +5373,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5430,11 +5406,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5439,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5504,11 +5472,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5541,11 +5505,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5578,11 +5538,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5615,11 +5571,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5652,11 +5604,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5689,11 +5637,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5726,11 +5670,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5763,11 +5703,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5800,17 +5736,13 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
       <c r="M161" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest XMR.xlsx
+++ b/BackTest/2019-10-29 BackTest XMR.xlsx
@@ -451,7 +451,7 @@
         <v>-12.83078328954301</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1573,10 +1573,14 @@
         <v>-5603.421076192311</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J36" t="n">
+        <v>69550</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1609,8 +1613,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1652,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>69550</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1738,14 +1754,10 @@
         <v>-5603.421076192311</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>69550</v>
-      </c>
-      <c r="J41" t="n">
-        <v>69550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
@@ -1775,19 +1787,11 @@
         <v>-5603.421076192311</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>69550</v>
-      </c>
-      <c r="J42" t="n">
-        <v>69550</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1819,14 +1823,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>69550</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1888,14 +1886,10 @@
         <v>-563.9763761923114</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>69350</v>
-      </c>
-      <c r="J45" t="n">
-        <v>69350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
@@ -1928,14 +1922,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>69350</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1967,14 +1955,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>69350</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -4511,7 +4493,7 @@
         <v>-1598.408436396246</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4544,7 +4526,7 @@
         <v>-1598.421236396246</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4577,7 +4559,7 @@
         <v>-1598.421236396246</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4610,7 +4592,7 @@
         <v>-1598.277836396246</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4643,7 +4625,7 @@
         <v>-1599.111736396246</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4676,7 +4658,7 @@
         <v>-1597.657036396246</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4709,7 +4691,7 @@
         <v>-1597.657036396246</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4742,7 +4724,7 @@
         <v>-1597.657036396246</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5006,10 +4988,14 @@
         <v>-1531.162136396247</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>69950</v>
+      </c>
+      <c r="J139" t="n">
+        <v>69950</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
@@ -5039,11 +5025,19 @@
         <v>-1531.162136396247</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>69950</v>
+      </c>
+      <c r="J140" t="n">
+        <v>69950</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5072,11 +5066,19 @@
         <v>-1531.162136396247</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>69950</v>
+      </c>
+      <c r="J141" t="n">
+        <v>69950</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5105,11 +5107,19 @@
         <v>-1520.601536396247</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>69950</v>
+      </c>
+      <c r="J142" t="n">
+        <v>69950</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5138,11 +5148,19 @@
         <v>-1520.585436396246</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>70000</v>
+      </c>
+      <c r="J143" t="n">
+        <v>69950</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5171,11 +5189,19 @@
         <v>-1520.635436396246</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>70300</v>
+      </c>
+      <c r="J144" t="n">
+        <v>69950</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5204,11 +5230,19 @@
         <v>-1520.327536396246</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>69750</v>
+      </c>
+      <c r="J145" t="n">
+        <v>69950</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5237,11 +5271,19 @@
         <v>-1519.189236396246</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>70300</v>
+      </c>
+      <c r="J146" t="n">
+        <v>69950</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5273,8 +5315,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>69950</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5306,8 +5354,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>69950</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5339,8 +5393,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>69950</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5372,8 +5432,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>69950</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5405,8 +5471,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>69950</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5435,13 +5507,19 @@
         <v>-1513.837036396246</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>69950</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L152" t="n">
-        <v>1</v>
+        <v>1.01644388849178</v>
       </c>
       <c r="M152" t="inlineStr"/>
     </row>
@@ -5468,7 +5546,7 @@
         <v>-1500.352036396246</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5501,7 +5579,7 @@
         <v>-1500.352036396246</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5534,7 +5612,7 @@
         <v>-1500.352036396246</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5567,7 +5645,7 @@
         <v>-1502.877936396246</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5600,7 +5678,7 @@
         <v>-1507.497036396246</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5633,7 +5711,7 @@
         <v>-1505.841036396246</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5666,7 +5744,7 @@
         <v>-1505.841036396246</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5699,7 +5777,7 @@
         <v>-1501.486236396246</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5732,7 +5810,7 @@
         <v>-1501.486236396246</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest XMR.xlsx
+++ b/BackTest/2019-10-29 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M161"/>
+  <dimension ref="A1:L161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1.4999</v>
       </c>
       <c r="G2" t="n">
-        <v>-12.83078328954301</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>-12.85078328954301</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>5.2007</v>
       </c>
       <c r="G4" t="n">
-        <v>-18.05148328954301</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>-18.03148328954301</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>2.205</v>
       </c>
       <c r="G6" t="n">
-        <v>-18.03148328954301</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>0.8046</v>
       </c>
       <c r="G7" t="n">
-        <v>-18.03148328954301</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>11.7702</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.261283289543007</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>0.0678</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.261283289543007</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>0.1021</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.363383289543007</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>0.4617</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.363383289543007</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>0.1923</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.171083289543007</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>4.9</v>
       </c>
       <c r="G13" t="n">
-        <v>-11.07108328954301</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>0.1</v>
       </c>
       <c r="G14" t="n">
-        <v>-10.97108328954301</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>0.050007097232</v>
       </c>
       <c r="G15" t="n">
-        <v>-10.92107619231101</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>76</v>
       </c>
       <c r="G16" t="n">
-        <v>-86.92107619231101</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>76</v>
       </c>
       <c r="G17" t="n">
-        <v>-162.921076192311</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>6304.5</v>
       </c>
       <c r="G18" t="n">
-        <v>6141.578923807689</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>5235.5</v>
       </c>
       <c r="G19" t="n">
-        <v>6141.578923807689</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>5307</v>
       </c>
       <c r="G20" t="n">
-        <v>834.5789238076886</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>7511</v>
       </c>
       <c r="G21" t="n">
-        <v>834.5789238076886</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>7439.2114</v>
       </c>
       <c r="G22" t="n">
-        <v>834.5789238076886</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>7629.0935</v>
       </c>
       <c r="G23" t="n">
-        <v>834.5789238076886</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>7540</v>
       </c>
       <c r="G24" t="n">
-        <v>834.5789238076886</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>7511</v>
       </c>
       <c r="G25" t="n">
-        <v>834.5789238076886</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>7453</v>
       </c>
       <c r="G26" t="n">
-        <v>834.5789238076886</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>7685.5434</v>
       </c>
       <c r="G27" t="n">
-        <v>834.5789238076886</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>7685</v>
       </c>
       <c r="G28" t="n">
-        <v>834.5789238076886</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>7482</v>
       </c>
       <c r="G29" t="n">
-        <v>834.5789238076886</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>7540</v>
       </c>
       <c r="G30" t="n">
-        <v>834.5789238076886</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>7685.1483</v>
       </c>
       <c r="G31" t="n">
-        <v>834.5789238076886</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>7627</v>
       </c>
       <c r="G32" t="n">
-        <v>834.5789238076886</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>7540</v>
       </c>
       <c r="G33" t="n">
-        <v>834.5789238076886</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>6235</v>
       </c>
       <c r="G34" t="n">
-        <v>834.5789238076886</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>6438</v>
       </c>
       <c r="G35" t="n">
-        <v>-5603.421076192311</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,22 +1463,15 @@
         <v>7511</v>
       </c>
       <c r="G36" t="n">
-        <v>-5603.421076192311</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>69550</v>
-      </c>
-      <c r="J36" t="n">
-        <v>69550</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1607,24 +1493,15 @@
         <v>7511</v>
       </c>
       <c r="G37" t="n">
-        <v>-5603.421076192311</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>69550</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1646,24 +1523,15 @@
         <v>7627</v>
       </c>
       <c r="G38" t="n">
-        <v>-5603.421076192311</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>69550</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1685,18 +1553,15 @@
         <v>7482</v>
       </c>
       <c r="G39" t="n">
-        <v>-5603.421076192311</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1718,18 +1583,15 @@
         <v>7540</v>
       </c>
       <c r="G40" t="n">
-        <v>-5603.421076192311</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1751,18 +1613,15 @@
         <v>7540</v>
       </c>
       <c r="G41" t="n">
-        <v>-5603.421076192311</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1784,18 +1643,15 @@
         <v>8033</v>
       </c>
       <c r="G42" t="n">
-        <v>-5603.421076192311</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1817,18 +1673,15 @@
         <v>5778.8162</v>
       </c>
       <c r="G43" t="n">
-        <v>-5603.421076192311</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1850,18 +1703,15 @@
         <v>0.5553</v>
       </c>
       <c r="G44" t="n">
-        <v>-5603.976376192311</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1883,18 +1733,15 @@
         <v>5040</v>
       </c>
       <c r="G45" t="n">
-        <v>-563.9763761923114</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1916,18 +1763,15 @@
         <v>7420</v>
       </c>
       <c r="G46" t="n">
-        <v>-563.9763761923114</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1949,18 +1793,15 @@
         <v>7224</v>
       </c>
       <c r="G47" t="n">
-        <v>-563.9763761923114</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1982,18 +1823,15 @@
         <v>7308</v>
       </c>
       <c r="G48" t="n">
-        <v>-563.9763761923114</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2015,18 +1853,15 @@
         <v>7252</v>
       </c>
       <c r="G49" t="n">
-        <v>-563.9763761923114</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2048,18 +1883,15 @@
         <v>7339</v>
       </c>
       <c r="G50" t="n">
-        <v>-563.9763761923114</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2081,18 +1913,19 @@
         <v>7252</v>
       </c>
       <c r="G51" t="n">
-        <v>-563.9763761923114</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="I51" t="n">
+        <v>69550</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2114,18 +1947,23 @@
         <v>7308.6676</v>
       </c>
       <c r="G52" t="n">
-        <v>-563.9763761923114</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="I52" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2147,18 +1985,23 @@
         <v>7362.8335</v>
       </c>
       <c r="G53" t="n">
-        <v>-563.9763761923114</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="I53" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2180,18 +2023,19 @@
         <v>7336</v>
       </c>
       <c r="G54" t="n">
-        <v>-563.9763761923114</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="I54" t="n">
+        <v>69550</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2213,18 +2057,21 @@
         <v>7224</v>
       </c>
       <c r="G55" t="n">
-        <v>-563.9763761923114</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2246,18 +2093,21 @@
         <v>7224</v>
       </c>
       <c r="G56" t="n">
-        <v>-563.9763761923114</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2279,18 +2129,19 @@
         <v>7364</v>
       </c>
       <c r="G57" t="n">
-        <v>-563.9763761923114</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="I57" t="n">
+        <v>69550</v>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2312,18 +2163,23 @@
         <v>7280.2521</v>
       </c>
       <c r="G58" t="n">
-        <v>-563.9763761923114</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="I58" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2345,18 +2201,23 @@
         <v>7280</v>
       </c>
       <c r="G59" t="n">
-        <v>-563.9763761923114</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="I59" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2378,18 +2239,23 @@
         <v>7340.5656</v>
       </c>
       <c r="G60" t="n">
-        <v>-563.9763761923114</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="I60" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2411,18 +2277,23 @@
         <v>7392</v>
       </c>
       <c r="G61" t="n">
-        <v>-563.9763761923114</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="I61" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2444,18 +2315,23 @@
         <v>7336</v>
       </c>
       <c r="G62" t="n">
-        <v>-563.9763761923114</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="I62" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2477,18 +2353,23 @@
         <v>7392</v>
       </c>
       <c r="G63" t="n">
-        <v>-563.9763761923114</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="I63" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2510,18 +2391,23 @@
         <v>7336</v>
       </c>
       <c r="G64" t="n">
-        <v>-563.9763761923114</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="I64" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2543,18 +2429,23 @@
         <v>4060</v>
       </c>
       <c r="G65" t="n">
-        <v>-563.9763761923114</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="I65" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2576,18 +2467,23 @@
         <v>336</v>
       </c>
       <c r="G66" t="n">
-        <v>-899.9763761923114</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="I66" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2609,18 +2505,23 @@
         <v>4844</v>
       </c>
       <c r="G67" t="n">
-        <v>-5743.976376192311</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>69500</v>
+      </c>
+      <c r="I67" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2642,18 +2543,23 @@
         <v>7336</v>
       </c>
       <c r="G68" t="n">
-        <v>-5743.976376192311</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="I68" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2675,18 +2581,23 @@
         <v>7377.6504</v>
       </c>
       <c r="G69" t="n">
-        <v>-5743.976376192311</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="I69" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2708,18 +2619,23 @@
         <v>7366.9557</v>
       </c>
       <c r="G70" t="n">
-        <v>-5743.976376192311</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="I70" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2741,18 +2657,23 @@
         <v>7336.7944</v>
       </c>
       <c r="G71" t="n">
-        <v>-5743.976376192311</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="I71" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2774,18 +2695,23 @@
         <v>7287.857</v>
       </c>
       <c r="G72" t="n">
-        <v>-5743.976376192311</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="I72" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2807,18 +2733,23 @@
         <v>7307.1563</v>
       </c>
       <c r="G73" t="n">
-        <v>-5743.976376192311</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="I73" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2840,18 +2771,23 @@
         <v>7280.8437</v>
       </c>
       <c r="G74" t="n">
-        <v>-5743.976376192311</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="I74" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2873,18 +2809,23 @@
         <v>7366.7236</v>
       </c>
       <c r="G75" t="n">
-        <v>-5743.976376192311</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="I75" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2906,18 +2847,23 @@
         <v>7416.538</v>
       </c>
       <c r="G76" t="n">
-        <v>-5743.976376192311</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="I76" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2939,18 +2885,23 @@
         <v>7497.6047</v>
       </c>
       <c r="G77" t="n">
-        <v>-5743.976376192311</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="I77" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2972,18 +2923,23 @@
         <v>7543.3854</v>
       </c>
       <c r="G78" t="n">
-        <v>-5743.976376192311</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="I78" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3005,18 +2961,23 @@
         <v>7336</v>
       </c>
       <c r="G79" t="n">
-        <v>-5743.976376192311</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="I79" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3038,18 +2999,23 @@
         <v>7336</v>
       </c>
       <c r="G80" t="n">
-        <v>-5743.976376192311</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="I80" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3071,18 +3037,23 @@
         <v>7420</v>
       </c>
       <c r="G81" t="n">
-        <v>-5743.976376192311</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="I81" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3104,18 +3075,23 @@
         <v>7504</v>
       </c>
       <c r="G82" t="n">
-        <v>-5743.976376192311</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="I82" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3137,18 +3113,23 @@
         <v>7427.0525</v>
       </c>
       <c r="G83" t="n">
-        <v>-5743.976376192311</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="I83" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3170,18 +3151,23 @@
         <v>7448</v>
       </c>
       <c r="G84" t="n">
-        <v>-5743.976376192311</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="I84" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3203,18 +3189,23 @@
         <v>7420</v>
       </c>
       <c r="G85" t="n">
-        <v>-5743.976376192311</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="I85" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3236,18 +3227,23 @@
         <v>2016</v>
       </c>
       <c r="G86" t="n">
-        <v>-5743.976376192311</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="I86" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3269,18 +3265,23 @@
         <v>74.95820000000001</v>
       </c>
       <c r="G87" t="n">
-        <v>-5669.018176192311</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>69350</v>
+      </c>
+      <c r="I87" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3302,18 +3303,23 @@
         <v>4083.7649</v>
       </c>
       <c r="G88" t="n">
-        <v>-1585.253276192311</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>69500</v>
+      </c>
+      <c r="I88" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3335,18 +3341,23 @@
         <v>6217.5</v>
       </c>
       <c r="G89" t="n">
-        <v>-1585.253276192311</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="I89" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3368,18 +3379,23 @@
         <v>3672</v>
       </c>
       <c r="G90" t="n">
-        <v>-1585.253276192311</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="I90" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3401,18 +3417,23 @@
         <v>1.704</v>
       </c>
       <c r="G91" t="n">
-        <v>-1583.549276192311</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>69550</v>
+      </c>
+      <c r="I91" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3434,18 +3455,21 @@
         <v>0.5925</v>
       </c>
       <c r="G92" t="n">
-        <v>-1584.141776192311</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3467,18 +3491,23 @@
         <v>8.0876</v>
       </c>
       <c r="G93" t="n">
-        <v>-1576.054176192311</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>69300</v>
+      </c>
+      <c r="I93" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3500,18 +3529,21 @@
         <v>1.8811</v>
       </c>
       <c r="G94" t="n">
-        <v>-1577.935276192311</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3533,18 +3565,21 @@
         <v>1.2123</v>
       </c>
       <c r="G95" t="n">
-        <v>-1576.722976192311</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3566,18 +3601,21 @@
         <v>1.704</v>
       </c>
       <c r="G96" t="n">
-        <v>-1575.018976192311</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3599,18 +3637,21 @@
         <v>0.8124</v>
       </c>
       <c r="G97" t="n">
-        <v>-1575.018976192311</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3632,18 +3673,21 @@
         <v>2.6796</v>
       </c>
       <c r="G98" t="n">
-        <v>-1572.339376192311</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3665,18 +3709,21 @@
         <v>6.7465</v>
       </c>
       <c r="G99" t="n">
-        <v>-1579.085876192311</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3698,18 +3745,21 @@
         <v>9.975</v>
       </c>
       <c r="G100" t="n">
-        <v>-1569.110876192311</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3731,18 +3781,21 @@
         <v>0.02</v>
       </c>
       <c r="G101" t="n">
-        <v>-1569.090876192311</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3764,18 +3817,21 @@
         <v>1.552</v>
       </c>
       <c r="G102" t="n">
-        <v>-1570.642876192311</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>69550</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1.015129403306974</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3797,18 +3853,15 @@
         <v>5.8549</v>
       </c>
       <c r="G103" t="n">
-        <v>-1564.787976192311</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3830,18 +3883,15 @@
         <v>2.9307</v>
       </c>
       <c r="G104" t="n">
-        <v>-1567.718676192311</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3863,18 +3913,15 @@
         <v>1.68</v>
       </c>
       <c r="G105" t="n">
-        <v>-1569.398676192311</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3896,18 +3943,15 @@
         <v>0.85</v>
       </c>
       <c r="G106" t="n">
-        <v>-1570.248676192311</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3929,18 +3973,15 @@
         <v>5.8549</v>
       </c>
       <c r="G107" t="n">
-        <v>-1576.103576192311</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3962,18 +4003,15 @@
         <v>15</v>
       </c>
       <c r="G108" t="n">
-        <v>-1591.103576192311</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3995,18 +4033,15 @@
         <v>7.3571</v>
       </c>
       <c r="G109" t="n">
-        <v>-1598.460676192311</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4028,18 +4063,15 @@
         <v>0.6239</v>
       </c>
       <c r="G110" t="n">
-        <v>-1599.084576192311</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4061,18 +4093,15 @@
         <v>0.8517</v>
       </c>
       <c r="G111" t="n">
-        <v>-1599.084576192311</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4094,18 +4123,15 @@
         <v>0.059120403749</v>
       </c>
       <c r="G112" t="n">
-        <v>-1599.025455788562</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4127,18 +4153,15 @@
         <v>0.6859</v>
       </c>
       <c r="G113" t="n">
-        <v>-1599.711355788562</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4160,18 +4183,15 @@
         <v>7.311</v>
       </c>
       <c r="G114" t="n">
-        <v>-1592.400355788562</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4193,18 +4213,15 @@
         <v>0.03019410496</v>
       </c>
       <c r="G115" t="n">
-        <v>-1592.370161683602</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4226,18 +4243,15 @@
         <v>3.6439</v>
       </c>
       <c r="G116" t="n">
-        <v>-1596.014061683602</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4259,18 +4273,15 @@
         <v>0.031925287356</v>
       </c>
       <c r="G117" t="n">
-        <v>-1595.982136396246</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4292,18 +4303,15 @@
         <v>0.268074712644</v>
       </c>
       <c r="G118" t="n">
-        <v>-1595.982136396246</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4325,18 +4333,15 @@
         <v>0.672</v>
       </c>
       <c r="G119" t="n">
-        <v>-1595.310136396246</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4358,18 +4363,15 @@
         <v>0.15</v>
       </c>
       <c r="G120" t="n">
-        <v>-1595.160136396246</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4391,18 +4393,15 @@
         <v>0.5608</v>
       </c>
       <c r="G121" t="n">
-        <v>-1595.720936396246</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4424,18 +4423,15 @@
         <v>1.4667</v>
       </c>
       <c r="G122" t="n">
-        <v>-1595.720936396246</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4457,18 +4453,15 @@
         <v>1.4999</v>
       </c>
       <c r="G123" t="n">
-        <v>-1594.221036396246</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4490,18 +4483,15 @@
         <v>4.1874</v>
       </c>
       <c r="G124" t="n">
-        <v>-1598.408436396246</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4523,18 +4513,15 @@
         <v>0.0128</v>
       </c>
       <c r="G125" t="n">
-        <v>-1598.421236396246</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4556,18 +4543,15 @@
         <v>5.7708</v>
       </c>
       <c r="G126" t="n">
-        <v>-1598.421236396246</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4589,18 +4573,15 @@
         <v>0.1434</v>
       </c>
       <c r="G127" t="n">
-        <v>-1598.277836396246</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4622,18 +4603,15 @@
         <v>0.8339</v>
       </c>
       <c r="G128" t="n">
-        <v>-1599.111736396246</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4655,18 +4633,15 @@
         <v>1.4547</v>
       </c>
       <c r="G129" t="n">
-        <v>-1597.657036396246</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4688,18 +4663,15 @@
         <v>37.3768</v>
       </c>
       <c r="G130" t="n">
-        <v>-1597.657036396246</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4721,18 +4693,15 @@
         <v>0.448</v>
       </c>
       <c r="G131" t="n">
-        <v>-1597.657036396246</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4754,18 +4723,15 @@
         <v>1.5487</v>
       </c>
       <c r="G132" t="n">
-        <v>-1597.657036396246</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4787,18 +4753,15 @@
         <v>66.4949</v>
       </c>
       <c r="G133" t="n">
-        <v>-1531.162136396247</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4820,18 +4783,15 @@
         <v>79.5433</v>
       </c>
       <c r="G134" t="n">
-        <v>-1531.162136396247</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4853,18 +4813,15 @@
         <v>39.4898</v>
       </c>
       <c r="G135" t="n">
-        <v>-1531.162136396247</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4886,18 +4843,15 @@
         <v>0.0282</v>
       </c>
       <c r="G136" t="n">
-        <v>-1531.162136396247</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4919,18 +4873,15 @@
         <v>38.3647</v>
       </c>
       <c r="G137" t="n">
-        <v>-1531.162136396247</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4952,18 +4903,15 @@
         <v>112.2296</v>
       </c>
       <c r="G138" t="n">
-        <v>-1531.162136396247</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4985,22 +4933,15 @@
         <v>6.4069</v>
       </c>
       <c r="G139" t="n">
-        <v>-1531.162136396247</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>69950</v>
-      </c>
-      <c r="J139" t="n">
-        <v>69950</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5022,26 +4963,15 @@
         <v>11.3802</v>
       </c>
       <c r="G140" t="n">
-        <v>-1531.162136396247</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>69950</v>
-      </c>
-      <c r="J140" t="n">
-        <v>69950</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5063,26 +4993,15 @@
         <v>1.3258</v>
       </c>
       <c r="G141" t="n">
-        <v>-1531.162136396247</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>69950</v>
-      </c>
-      <c r="J141" t="n">
-        <v>69950</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5104,26 +5023,15 @@
         <v>10.5606</v>
       </c>
       <c r="G142" t="n">
-        <v>-1520.601536396247</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>69950</v>
-      </c>
-      <c r="J142" t="n">
-        <v>69950</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5145,26 +5053,15 @@
         <v>0.0161</v>
       </c>
       <c r="G143" t="n">
-        <v>-1520.585436396246</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>70000</v>
-      </c>
-      <c r="J143" t="n">
-        <v>69950</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5186,26 +5083,15 @@
         <v>0.05</v>
       </c>
       <c r="G144" t="n">
-        <v>-1520.635436396246</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>70300</v>
-      </c>
-      <c r="J144" t="n">
-        <v>69950</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5227,26 +5113,15 @@
         <v>0.3079</v>
       </c>
       <c r="G145" t="n">
-        <v>-1520.327536396246</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>69750</v>
-      </c>
-      <c r="J145" t="n">
-        <v>69950</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5268,26 +5143,15 @@
         <v>1.1383</v>
       </c>
       <c r="G146" t="n">
-        <v>-1519.189236396246</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>70300</v>
-      </c>
-      <c r="J146" t="n">
-        <v>69950</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5309,24 +5173,15 @@
         <v>5.0483</v>
       </c>
       <c r="G147" t="n">
-        <v>-1514.140936396246</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>69950</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5348,24 +5203,15 @@
         <v>1.0622</v>
       </c>
       <c r="G148" t="n">
-        <v>-1513.078736396246</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>69950</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5387,24 +5233,15 @@
         <v>0.95</v>
       </c>
       <c r="G149" t="n">
-        <v>-1512.128736396246</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>69950</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5426,24 +5263,15 @@
         <v>2.1363</v>
       </c>
       <c r="G150" t="n">
-        <v>-1514.265036396246</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>69950</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5465,24 +5293,15 @@
         <v>0.428</v>
       </c>
       <c r="G151" t="n">
-        <v>-1513.837036396246</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>69950</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5504,24 +5323,15 @@
         <v>2.7083</v>
       </c>
       <c r="G152" t="n">
-        <v>-1513.837036396246</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>69950</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1.01644388849178</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5543,18 +5353,15 @@
         <v>13.485</v>
       </c>
       <c r="G153" t="n">
-        <v>-1500.352036396246</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5576,18 +5383,15 @@
         <v>1.763</v>
       </c>
       <c r="G154" t="n">
-        <v>-1500.352036396246</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5609,18 +5413,15 @@
         <v>5.789</v>
       </c>
       <c r="G155" t="n">
-        <v>-1500.352036396246</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5642,18 +5443,15 @@
         <v>2.5259</v>
       </c>
       <c r="G156" t="n">
-        <v>-1502.877936396246</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5675,18 +5473,15 @@
         <v>4.6191</v>
       </c>
       <c r="G157" t="n">
-        <v>-1507.497036396246</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5708,18 +5503,15 @@
         <v>1.656</v>
       </c>
       <c r="G158" t="n">
-        <v>-1505.841036396246</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5741,18 +5533,15 @@
         <v>0.5621</v>
       </c>
       <c r="G159" t="n">
-        <v>-1505.841036396246</v>
-      </c>
-      <c r="H159" t="n">
         <v>2</v>
       </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5774,18 +5563,15 @@
         <v>4.3548</v>
       </c>
       <c r="G160" t="n">
-        <v>-1501.486236396246</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5807,18 +5593,15 @@
         <v>2.8552</v>
       </c>
       <c r="G161" t="n">
-        <v>-1501.486236396246</v>
-      </c>
-      <c r="H161" t="n">
         <v>2</v>
       </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
